--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_23_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_23_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>641876.6203156951</v>
+        <v>639028.4306888581</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673425</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>22.82047985378899</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.507868067054783</v>
       </c>
       <c r="L2" t="n">
-        <v>8.240236561099266</v>
+        <v>8.240236561099437</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5.507868067055367</v>
+        <v>22.82047985378877</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -738,13 +738,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>22.82047985378899</v>
+        <v>22.82047985378877</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.82047985378899</v>
+        <v>6.82766075058786</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,16 +753,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>6.827660750588158</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>22.82047985378877</v>
       </c>
       <c r="K3" t="n">
-        <v>13.27261790462919</v>
+        <v>13.27261790462929</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.82047985378899</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>22.82047985378877</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>29.96843011879469</v>
+        <v>13.70732065777799</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>45.63689302957772</v>
+        <v>12.10299546346979</v>
       </c>
       <c r="K5" t="n">
         <v>17.14684397594775</v>
@@ -941,7 +941,7 @@
         <v>49.79500702712463</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -975,10 +975,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>12.84193026251983</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -987,13 +987,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,10 +1023,10 @@
         <v>49.79500702712463</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="T6" t="n">
-        <v>12.84193026251984</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1133,28 +1133,28 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>112.1126601249234</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>44.27770892465162</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="G8" t="n">
-        <v>13.38870434448781</v>
+        <v>64.54245901085127</v>
       </c>
       <c r="H8" t="n">
-        <v>112.1126601249234</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>18.59473170946475</v>
+        <v>18.59473170946464</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,16 +1175,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.61164031771693</v>
+        <v>15.61164031771682</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>112.1126601249234</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1218,22 +1218,22 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>112.1126601249234</v>
+        <v>34.93150086738699</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>102.3448132540521</v>
       </c>
       <c r="I9" t="n">
-        <v>64.2628644631298</v>
+        <v>64.26286446312977</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>30.08282103867671</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1254,10 +1254,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.256558775821503</v>
+        <v>9.256558775821418</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.095592888813</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1266,16 +1266,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>25.22940779908126</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>112.1126601249234</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>112.1126601249234</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1321,13 +1321,13 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>3.625377488803587</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>3.625377488803504</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>237.743922003782</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,10 +1385,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>8.296101769922814</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,19 +1424,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,10 +1537,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>110.7115619691729</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>96.31572829406679</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>288.3419405557222</v>
       </c>
       <c r="I14" t="n">
-        <v>17.98965543945178</v>
+        <v>17.98965543945181</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>94.17710277817845</v>
+        <v>7.473625230795022</v>
       </c>
       <c r="T14" t="n">
-        <v>201.239718576303</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9462261850435</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.6721154434932</v>
       </c>
       <c r="H15" t="n">
-        <v>86.43532762764653</v>
+        <v>86.43532762764654</v>
       </c>
       <c r="I15" t="n">
-        <v>7.546487457097228</v>
+        <v>7.546487457097243</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>66.42038282695235</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.7513658948475</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3149728036959</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>76.59222600424921</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>196.9028909613384</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>375.2658433894975</v>
       </c>
       <c r="G17" t="n">
-        <v>200.9792634198544</v>
+        <v>378.6997011280089</v>
       </c>
       <c r="H17" t="n">
         <v>256.7317382035083</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>63.6356616634687</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>169.6295162240891</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3360238328295</v>
+        <v>105.2512477881424</v>
       </c>
       <c r="V17" t="n">
         <v>296.142056117921</v>
@@ -1938,10 +1938,10 @@
         <v>134.6721154434932</v>
       </c>
       <c r="H18" t="n">
-        <v>86.43532762764653</v>
+        <v>86.43532762764654</v>
       </c>
       <c r="I18" t="n">
-        <v>7.546487457097228</v>
+        <v>7.546487457097243</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C19" t="n">
         <v>135.6366187464139</v>
       </c>
       <c r="D19" t="n">
-        <v>117.0052706659984</v>
+        <v>46.62889994694066</v>
       </c>
       <c r="E19" t="n">
         <v>114.8237602943552</v>
       </c>
       <c r="F19" t="n">
-        <v>99.92346263919467</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G19" t="n">
-        <v>134.1411635426335</v>
+        <v>134.1411635426336</v>
       </c>
       <c r="H19" t="n">
-        <v>110.7047704514819</v>
+        <v>110.704770451482</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>56.48898768753517</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.98202365203525</v>
+        <v>44.98202365203529</v>
       </c>
       <c r="S19" t="n">
         <v>153.3760410507332</v>
@@ -2056,13 +2056,13 @@
         <v>186.7661295497286</v>
       </c>
       <c r="U19" t="n">
-        <v>254.5866662698981</v>
+        <v>254.5866662698982</v>
       </c>
       <c r="V19" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W19" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X19" t="n">
         <v>194.0994530368232</v>
@@ -2084,7 +2084,7 @@
         <v>333.6626894187936</v>
       </c>
       <c r="D20" t="n">
-        <v>208.988063223782</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E20" t="n">
         <v>350.3201677200478</v>
@@ -2096,7 +2096,7 @@
         <v>378.6997011280089</v>
       </c>
       <c r="H20" t="n">
-        <v>256.7317382035083</v>
+        <v>79.01130049535223</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>63.63566166346874</v>
       </c>
       <c r="T20" t="n">
         <v>169.6295162240891</v>
@@ -2175,10 +2175,10 @@
         <v>134.6721154434932</v>
       </c>
       <c r="H21" t="n">
-        <v>86.43532762764653</v>
+        <v>86.43532762764654</v>
       </c>
       <c r="I21" t="n">
-        <v>7.546487457097228</v>
+        <v>7.546487457097243</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>113.8108456707173</v>
       </c>
       <c r="G22" t="n">
-        <v>108.7468164756116</v>
+        <v>134.1411635426336</v>
       </c>
       <c r="H22" t="n">
         <v>110.704770451482</v>
       </c>
       <c r="I22" t="n">
-        <v>56.48898768753514</v>
+        <v>56.48898768753517</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>44.98202365203529</v>
       </c>
       <c r="S22" t="n">
-        <v>153.3760410507332</v>
+        <v>82.99967033167478</v>
       </c>
       <c r="T22" t="n">
         <v>186.7661295497286</v>
@@ -2494,7 +2494,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>351.1236393112665</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187934</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D26" t="n">
-        <v>323.0728392684688</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E26" t="n">
-        <v>350.3201677200477</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F26" t="n">
-        <v>375.2658433894973</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G26" t="n">
-        <v>378.5542040247496</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H26" t="n">
-        <v>255.2416659947572</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.3201464229516</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T26" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645687</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V26" t="n">
-        <v>296.1420561179208</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W26" t="n">
-        <v>317.6307663651989</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X26" t="n">
-        <v>338.1208983262549</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.6277363038395</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>148.2217778297232</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C28" t="n">
-        <v>135.6366187464137</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D28" t="n">
-        <v>117.0052706659982</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8237602943551</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F28" t="n">
-        <v>113.8108456707171</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G28" t="n">
-        <v>134.075898551028</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H28" t="n">
-        <v>110.1245053442995</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139452994</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.0474723022156</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S28" t="n">
-        <v>152.2386502424831</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T28" t="n">
-        <v>186.4872700401419</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U28" t="n">
-        <v>254.583106361265</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V28" t="n">
-        <v>220.5274409716179</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W28" t="n">
-        <v>254.9127959843769</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X28" t="n">
-        <v>194.099453036823</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9744509998807</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="29">
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295204</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T29" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V29" t="n">
         <v>296.142056117921</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221558</v>
       </c>
       <c r="S31" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T31" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U31" t="n">
         <v>254.5831063612652</v>
@@ -3016,7 +3016,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112665</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187934</v>
       </c>
       <c r="D32" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684688</v>
       </c>
       <c r="E32" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200477</v>
       </c>
       <c r="F32" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894973</v>
       </c>
       <c r="G32" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247496</v>
       </c>
       <c r="H32" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947557</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295159</v>
       </c>
       <c r="T32" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545722</v>
       </c>
       <c r="U32" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645687</v>
       </c>
       <c r="V32" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179208</v>
       </c>
       <c r="W32" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651989</v>
       </c>
       <c r="X32" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262549</v>
       </c>
       <c r="Y32" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038395</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297232</v>
       </c>
       <c r="C34" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464137</v>
       </c>
       <c r="D34" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659982</v>
       </c>
       <c r="E34" t="n">
-        <v>114.8237602943552</v>
+        <v>114.823760294355</v>
       </c>
       <c r="F34" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707171</v>
       </c>
       <c r="G34" t="n">
-        <v>134.0758985510282</v>
+        <v>134.075898551028</v>
       </c>
       <c r="H34" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442995</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139452993</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221578</v>
+        <v>42.0474723022156</v>
       </c>
       <c r="S34" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424831</v>
       </c>
       <c r="T34" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401418</v>
       </c>
       <c r="U34" t="n">
-        <v>254.5831063612652</v>
+        <v>254.583106361265</v>
       </c>
       <c r="V34" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716139</v>
       </c>
       <c r="W34" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843809</v>
       </c>
       <c r="X34" t="n">
-        <v>194.0994530368232</v>
+        <v>194.099453036823</v>
       </c>
       <c r="Y34" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998807</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112665</v>
       </c>
       <c r="C35" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D35" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684689</v>
       </c>
       <c r="E35" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200477</v>
       </c>
       <c r="F35" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G35" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H35" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947558</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295165</v>
       </c>
       <c r="T35" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545722</v>
       </c>
       <c r="U35" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645687</v>
       </c>
       <c r="V35" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179208</v>
       </c>
       <c r="W35" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X35" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y35" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038395</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297232</v>
       </c>
       <c r="C37" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D37" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659983</v>
       </c>
       <c r="E37" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943551</v>
       </c>
       <c r="F37" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G37" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H37" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139452999</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221873</v>
       </c>
       <c r="S37" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424832</v>
       </c>
       <c r="T37" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401419</v>
       </c>
       <c r="U37" t="n">
-        <v>254.5831063612652</v>
+        <v>254.583106361265</v>
       </c>
       <c r="V37" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716139</v>
       </c>
       <c r="W37" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843769</v>
       </c>
       <c r="X37" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y37" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998807</v>
       </c>
     </row>
     <row r="38">
@@ -3679,7 +3679,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221693</v>
+        <v>42.04747230221603</v>
       </c>
       <c r="S40" t="n">
         <v>152.2386502424833</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>351.1236393112665</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C44" t="n">
-        <v>333.6626894187934</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D44" t="n">
-        <v>323.0728392684688</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E44" t="n">
-        <v>350.3201677200477</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F44" t="n">
-        <v>375.2658433894973</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G44" t="n">
-        <v>378.5542040247496</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H44" t="n">
-        <v>255.2416659947557</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295159</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T44" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U44" t="n">
-        <v>219.3243840645687</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V44" t="n">
-        <v>296.1420561179208</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W44" t="n">
-        <v>317.6307663651989</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X44" t="n">
-        <v>338.1208983262549</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y44" t="n">
-        <v>354.6277363038395</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>148.2217778297232</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C46" t="n">
-        <v>135.6366187464137</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D46" t="n">
-        <v>117.0052706659982</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E46" t="n">
-        <v>114.823760294355</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F46" t="n">
-        <v>113.8108456707171</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G46" t="n">
-        <v>134.075898551028</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H46" t="n">
-        <v>110.1245053442995</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139452993</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221561</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S46" t="n">
-        <v>152.2386502424831</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T46" t="n">
-        <v>186.4872700401419</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U46" t="n">
-        <v>254.583106361265</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V46" t="n">
-        <v>220.5274409716139</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W46" t="n">
-        <v>254.9127959843769</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X46" t="n">
-        <v>194.099453036823</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y46" t="n">
-        <v>186.9744509998807</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>85.71841631712024</v>
+        <v>68.23092966385329</v>
       </c>
       <c r="C2" t="n">
-        <v>85.71841631712024</v>
+        <v>68.23092966385329</v>
       </c>
       <c r="D2" t="n">
-        <v>85.71841631712024</v>
+        <v>68.23092966385329</v>
       </c>
       <c r="E2" t="n">
-        <v>85.71841631712024</v>
+        <v>68.23092966385329</v>
       </c>
       <c r="F2" t="n">
-        <v>78.77291556791677</v>
+        <v>61.28542891464981</v>
       </c>
       <c r="G2" t="n">
-        <v>64.77196426177974</v>
+        <v>47.28447760851279</v>
       </c>
       <c r="H2" t="n">
-        <v>64.77196426177974</v>
+        <v>47.28447760851279</v>
       </c>
       <c r="I2" t="n">
-        <v>64.77196426177974</v>
+        <v>47.28447760851279</v>
       </c>
       <c r="J2" t="n">
-        <v>41.72097451047773</v>
+        <v>47.28447760851279</v>
       </c>
       <c r="K2" t="n">
-        <v>41.72097451047773</v>
+        <v>41.72097451047765</v>
       </c>
       <c r="L2" t="n">
-        <v>33.39750323664009</v>
+        <v>33.39750323663984</v>
       </c>
       <c r="M2" t="n">
-        <v>55.98977829189119</v>
+        <v>55.98977829189072</v>
       </c>
       <c r="N2" t="n">
-        <v>78.58205334714229</v>
+        <v>78.5820533471416</v>
       </c>
       <c r="O2" t="n">
-        <v>91.28191941515597</v>
+        <v>91.28191941515507</v>
       </c>
       <c r="P2" t="n">
-        <v>85.71841631712024</v>
+        <v>68.23092966385329</v>
       </c>
       <c r="Q2" t="n">
-        <v>85.71841631712024</v>
+        <v>68.23092966385329</v>
       </c>
       <c r="R2" t="n">
-        <v>85.71841631712024</v>
+        <v>68.23092966385329</v>
       </c>
       <c r="S2" t="n">
-        <v>85.71841631712024</v>
+        <v>68.23092966385329</v>
       </c>
       <c r="T2" t="n">
-        <v>85.71841631712024</v>
+        <v>68.23092966385329</v>
       </c>
       <c r="U2" t="n">
-        <v>85.71841631712024</v>
+        <v>68.23092966385329</v>
       </c>
       <c r="V2" t="n">
-        <v>85.71841631712024</v>
+        <v>68.23092966385329</v>
       </c>
       <c r="W2" t="n">
-        <v>85.71841631712024</v>
+        <v>68.23092966385329</v>
       </c>
       <c r="X2" t="n">
-        <v>85.71841631712024</v>
+        <v>68.23092966385329</v>
       </c>
       <c r="Y2" t="n">
-        <v>85.71841631712024</v>
+        <v>68.23092966385329</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68.23092966385396</v>
+        <v>68.23092966385329</v>
       </c>
       <c r="C3" t="n">
-        <v>45.17993991255194</v>
+        <v>45.1799399125515</v>
       </c>
       <c r="D3" t="n">
-        <v>45.17993991255194</v>
+        <v>45.1799399125515</v>
       </c>
       <c r="E3" t="n">
-        <v>22.12895016124993</v>
+        <v>38.28331289175568</v>
       </c>
       <c r="F3" t="n">
-        <v>22.12895016124993</v>
+        <v>38.28331289175568</v>
       </c>
       <c r="G3" t="n">
-        <v>22.12895016124993</v>
+        <v>38.28331289175568</v>
       </c>
       <c r="H3" t="n">
-        <v>15.23232314045381</v>
+        <v>38.28331289175568</v>
       </c>
       <c r="I3" t="n">
-        <v>15.23232314045381</v>
+        <v>38.28331289175568</v>
       </c>
       <c r="J3" t="n">
-        <v>15.23232314045381</v>
+        <v>15.2323231404539</v>
       </c>
       <c r="K3" t="n">
-        <v>1.825638388303119</v>
+        <v>1.825638388303102</v>
       </c>
       <c r="L3" t="n">
-        <v>24.41791344355422</v>
+        <v>24.41791344355398</v>
       </c>
       <c r="M3" t="n">
-        <v>47.01018849880532</v>
+        <v>32.89607212615179</v>
       </c>
       <c r="N3" t="n">
-        <v>68.68964435990486</v>
+        <v>55.48834718140267</v>
       </c>
       <c r="O3" t="n">
-        <v>91.28191941515597</v>
+        <v>78.08062223665355</v>
       </c>
       <c r="P3" t="n">
-        <v>91.28191941515597</v>
+        <v>91.28191941515507</v>
       </c>
       <c r="Q3" t="n">
-        <v>68.23092966385396</v>
+        <v>91.28191941515507</v>
       </c>
       <c r="R3" t="n">
-        <v>68.23092966385396</v>
+        <v>68.23092966385329</v>
       </c>
       <c r="S3" t="n">
-        <v>68.23092966385396</v>
+        <v>68.23092966385329</v>
       </c>
       <c r="T3" t="n">
-        <v>68.23092966385396</v>
+        <v>68.23092966385329</v>
       </c>
       <c r="U3" t="n">
-        <v>68.23092966385396</v>
+        <v>68.23092966385329</v>
       </c>
       <c r="V3" t="n">
-        <v>68.23092966385396</v>
+        <v>68.23092966385329</v>
       </c>
       <c r="W3" t="n">
-        <v>68.23092966385396</v>
+        <v>68.23092966385329</v>
       </c>
       <c r="X3" t="n">
-        <v>68.23092966385396</v>
+        <v>68.23092966385329</v>
       </c>
       <c r="Y3" t="n">
-        <v>68.23092966385396</v>
+        <v>68.23092966385329</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.825638388303119</v>
+        <v>1.825638388303102</v>
       </c>
       <c r="C4" t="n">
-        <v>1.825638388303119</v>
+        <v>1.825638388303102</v>
       </c>
       <c r="D4" t="n">
-        <v>1.825638388303119</v>
+        <v>1.825638388303102</v>
       </c>
       <c r="E4" t="n">
-        <v>1.825638388303119</v>
+        <v>1.825638388303102</v>
       </c>
       <c r="F4" t="n">
-        <v>1.825638388303119</v>
+        <v>1.825638388303102</v>
       </c>
       <c r="G4" t="n">
-        <v>1.825638388303119</v>
+        <v>1.825638388303102</v>
       </c>
       <c r="H4" t="n">
-        <v>1.825638388303119</v>
+        <v>1.825638388303102</v>
       </c>
       <c r="I4" t="n">
-        <v>1.825638388303119</v>
+        <v>1.825638388303102</v>
       </c>
       <c r="J4" t="n">
-        <v>1.825638388303119</v>
+        <v>1.825638388303102</v>
       </c>
       <c r="K4" t="n">
-        <v>1.825638388303119</v>
+        <v>1.825638388303102</v>
       </c>
       <c r="L4" t="n">
-        <v>1.825638388303119</v>
+        <v>1.825638388303102</v>
       </c>
       <c r="M4" t="n">
-        <v>1.825638388303119</v>
+        <v>1.825638388303102</v>
       </c>
       <c r="N4" t="n">
-        <v>1.825638388303119</v>
+        <v>1.825638388303102</v>
       </c>
       <c r="O4" t="n">
-        <v>1.825638388303119</v>
+        <v>1.825638388303102</v>
       </c>
       <c r="P4" t="n">
-        <v>1.825638388303119</v>
+        <v>1.825638388303102</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.825638388303119</v>
+        <v>1.825638388303102</v>
       </c>
       <c r="R4" t="n">
-        <v>1.825638388303119</v>
+        <v>1.825638388303102</v>
       </c>
       <c r="S4" t="n">
-        <v>1.825638388303119</v>
+        <v>1.825638388303102</v>
       </c>
       <c r="T4" t="n">
-        <v>1.825638388303119</v>
+        <v>1.825638388303102</v>
       </c>
       <c r="U4" t="n">
-        <v>1.825638388303119</v>
+        <v>1.825638388303102</v>
       </c>
       <c r="V4" t="n">
-        <v>1.825638388303119</v>
+        <v>1.825638388303102</v>
       </c>
       <c r="W4" t="n">
-        <v>1.825638388303119</v>
+        <v>1.825638388303102</v>
       </c>
       <c r="X4" t="n">
-        <v>1.825638388303119</v>
+        <v>1.825638388303102</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.825638388303119</v>
+        <v>1.825638388303102</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>104.6181590127069</v>
+        <v>54.32017211662146</v>
       </c>
       <c r="C5" t="n">
-        <v>104.6181590127069</v>
+        <v>54.32017211662146</v>
       </c>
       <c r="D5" t="n">
-        <v>104.6181590127069</v>
+        <v>54.32017211662146</v>
       </c>
       <c r="E5" t="n">
-        <v>104.6181590127069</v>
+        <v>54.32017211662146</v>
       </c>
       <c r="F5" t="n">
-        <v>97.67265826350346</v>
+        <v>47.37467136741799</v>
       </c>
       <c r="G5" t="n">
-        <v>67.40151672936742</v>
+        <v>33.528892925218</v>
       </c>
       <c r="H5" t="n">
-        <v>67.40151672936742</v>
+        <v>33.528892925218</v>
       </c>
       <c r="I5" t="n">
-        <v>67.40151672936742</v>
+        <v>33.528892925218</v>
       </c>
       <c r="J5" t="n">
         <v>21.30364498231921</v>
@@ -4589,28 +4589,28 @@
         <v>104.6181590127069</v>
       </c>
       <c r="R5" t="n">
-        <v>104.6181590127069</v>
+        <v>54.32017211662146</v>
       </c>
       <c r="S5" t="n">
-        <v>104.6181590127069</v>
+        <v>54.32017211662146</v>
       </c>
       <c r="T5" t="n">
-        <v>104.6181590127069</v>
+        <v>54.32017211662146</v>
       </c>
       <c r="U5" t="n">
-        <v>104.6181590127069</v>
+        <v>54.32017211662146</v>
       </c>
       <c r="V5" t="n">
-        <v>104.6181590127069</v>
+        <v>54.32017211662146</v>
       </c>
       <c r="W5" t="n">
-        <v>104.6181590127069</v>
+        <v>54.32017211662146</v>
       </c>
       <c r="X5" t="n">
-        <v>104.6181590127069</v>
+        <v>54.32017211662146</v>
       </c>
       <c r="Y5" t="n">
-        <v>104.6181590127069</v>
+        <v>54.32017211662146</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>104.5795743543409</v>
+        <v>67.25323418807346</v>
       </c>
       <c r="C6" t="n">
-        <v>104.5795743543409</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="D6" t="n">
-        <v>104.5795743543409</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="E6" t="n">
-        <v>104.5795743543409</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="F6" t="n">
-        <v>104.5795743543409</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="G6" t="n">
-        <v>54.28158745825545</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="H6" t="n">
-        <v>54.28158745825545</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="I6" t="n">
         <v>3.98360056216997</v>
@@ -4671,25 +4671,25 @@
         <v>117.551221084159</v>
       </c>
       <c r="S6" t="n">
-        <v>117.551221084159</v>
+        <v>67.25323418807346</v>
       </c>
       <c r="T6" t="n">
-        <v>104.5795743543409</v>
+        <v>67.25323418807346</v>
       </c>
       <c r="U6" t="n">
-        <v>104.5795743543409</v>
+        <v>67.25323418807346</v>
       </c>
       <c r="V6" t="n">
-        <v>104.5795743543409</v>
+        <v>67.25323418807346</v>
       </c>
       <c r="W6" t="n">
-        <v>104.5795743543409</v>
+        <v>67.25323418807346</v>
       </c>
       <c r="X6" t="n">
-        <v>104.5795743543409</v>
+        <v>67.25323418807346</v>
       </c>
       <c r="Y6" t="n">
-        <v>104.5795743543409</v>
+        <v>67.25323418807346</v>
       </c>
     </row>
     <row r="7">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>319.4361956081378</v>
+        <v>206.191084370842</v>
       </c>
       <c r="C8" t="n">
-        <v>206.1910843708414</v>
+        <v>206.191084370842</v>
       </c>
       <c r="D8" t="n">
-        <v>161.4661258610923</v>
+        <v>206.191084370842</v>
       </c>
       <c r="E8" t="n">
-        <v>161.4661258610923</v>
+        <v>206.191084370842</v>
       </c>
       <c r="F8" t="n">
-        <v>154.5206251118888</v>
+        <v>92.94597313354534</v>
       </c>
       <c r="G8" t="n">
-        <v>140.9966813295779</v>
+        <v>27.75157009228141</v>
       </c>
       <c r="H8" t="n">
-        <v>27.7515700922815</v>
+        <v>27.75157009228141</v>
       </c>
       <c r="I8" t="n">
-        <v>27.7515700922815</v>
+        <v>27.75157009228141</v>
       </c>
       <c r="J8" t="n">
-        <v>8.969012809993874</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="K8" t="n">
-        <v>32.11753523687528</v>
+        <v>32.11753523687554</v>
       </c>
       <c r="L8" t="n">
-        <v>97.73708609773371</v>
+        <v>97.73708609773416</v>
       </c>
       <c r="M8" t="n">
-        <v>202.4209174083924</v>
+        <v>202.4209174083929</v>
       </c>
       <c r="N8" t="n">
-        <v>313.4124509320668</v>
+        <v>313.4124509320674</v>
       </c>
       <c r="O8" t="n">
-        <v>404.8833474416789</v>
+        <v>404.8833474416797</v>
       </c>
       <c r="P8" t="n">
-        <v>448.4506404996937</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="Q8" t="n">
-        <v>432.6813068454342</v>
+        <v>432.6813068454352</v>
       </c>
       <c r="R8" t="n">
-        <v>432.6813068454342</v>
+        <v>432.6813068454352</v>
       </c>
       <c r="S8" t="n">
-        <v>319.4361956081378</v>
+        <v>432.6813068454352</v>
       </c>
       <c r="T8" t="n">
-        <v>319.4361956081378</v>
+        <v>319.4361956081386</v>
       </c>
       <c r="U8" t="n">
-        <v>319.4361956081378</v>
+        <v>319.4361956081386</v>
       </c>
       <c r="V8" t="n">
-        <v>319.4361956081378</v>
+        <v>319.4361956081386</v>
       </c>
       <c r="W8" t="n">
-        <v>319.4361956081378</v>
+        <v>319.4361956081386</v>
       </c>
       <c r="X8" t="n">
-        <v>319.4361956081378</v>
+        <v>206.191084370842</v>
       </c>
       <c r="Y8" t="n">
-        <v>319.4361956081378</v>
+        <v>206.191084370842</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>187.126108353482</v>
+        <v>356.1757398283467</v>
       </c>
       <c r="C9" t="n">
-        <v>187.126108353482</v>
+        <v>356.1757398283467</v>
       </c>
       <c r="D9" t="n">
-        <v>187.126108353482</v>
+        <v>356.1757398283467</v>
       </c>
       <c r="E9" t="n">
-        <v>73.8809971161856</v>
+        <v>320.8913955178547</v>
       </c>
       <c r="F9" t="n">
-        <v>73.8809971161856</v>
+        <v>320.8913955178547</v>
       </c>
       <c r="G9" t="n">
-        <v>73.8809971161856</v>
+        <v>207.6462842805581</v>
       </c>
       <c r="H9" t="n">
-        <v>73.8809971161856</v>
+        <v>104.2676850340409</v>
       </c>
       <c r="I9" t="n">
-        <v>8.969012809993874</v>
+        <v>39.35570072784915</v>
       </c>
       <c r="J9" t="n">
-        <v>8.969012809993874</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="K9" t="n">
-        <v>36.2216681853454</v>
+        <v>36.22166818534551</v>
       </c>
       <c r="L9" t="n">
-        <v>119.188767679223</v>
+        <v>119.1887676792232</v>
       </c>
       <c r="M9" t="n">
-        <v>230.1803012028972</v>
+        <v>230.1803012028977</v>
       </c>
       <c r="N9" t="n">
-        <v>341.1718347265714</v>
+        <v>341.1718347265721</v>
       </c>
       <c r="O9" t="n">
-        <v>387.4830745953186</v>
+        <v>441.223936157822</v>
       </c>
       <c r="P9" t="n">
-        <v>448.4506404996937</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="Q9" t="n">
-        <v>439.100581130177</v>
+        <v>439.100581130178</v>
       </c>
       <c r="R9" t="n">
-        <v>439.100581130177</v>
+        <v>356.1757398283467</v>
       </c>
       <c r="S9" t="n">
-        <v>439.100581130177</v>
+        <v>356.1757398283467</v>
       </c>
       <c r="T9" t="n">
-        <v>439.100581130177</v>
+        <v>356.1757398283467</v>
       </c>
       <c r="U9" t="n">
-        <v>413.6163308280748</v>
+        <v>356.1757398283467</v>
       </c>
       <c r="V9" t="n">
-        <v>300.3712195907784</v>
+        <v>356.1757398283467</v>
       </c>
       <c r="W9" t="n">
-        <v>300.3712195907784</v>
+        <v>356.1757398283467</v>
       </c>
       <c r="X9" t="n">
-        <v>187.126108353482</v>
+        <v>356.1757398283467</v>
       </c>
       <c r="Y9" t="n">
-        <v>187.126108353482</v>
+        <v>356.1757398283467</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.969012809993874</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="C10" t="n">
-        <v>8.969012809993874</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="D10" t="n">
-        <v>8.969012809993874</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="E10" t="n">
-        <v>8.969012809993874</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="F10" t="n">
-        <v>8.969012809993874</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="G10" t="n">
-        <v>8.969012809993874</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="H10" t="n">
-        <v>8.969012809993874</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="I10" t="n">
-        <v>8.969012809993874</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="J10" t="n">
-        <v>8.969012809993874</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="K10" t="n">
-        <v>8.969012809993874</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="L10" t="n">
-        <v>8.969012809993874</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="M10" t="n">
-        <v>8.969012809993874</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="N10" t="n">
-        <v>12.63101027343176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="O10" t="n">
-        <v>8.969012809993874</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="P10" t="n">
-        <v>8.969012809993874</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="Q10" t="n">
-        <v>8.969012809993874</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="R10" t="n">
-        <v>8.969012809993874</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="S10" t="n">
-        <v>8.969012809993874</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="T10" t="n">
-        <v>8.969012809993874</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="U10" t="n">
-        <v>8.969012809993874</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="V10" t="n">
-        <v>8.969012809993874</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="W10" t="n">
-        <v>8.969012809993874</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="X10" t="n">
-        <v>8.969012809993874</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.969012809993874</v>
+        <v>12.63101027343186</v>
       </c>
     </row>
     <row r="11">
@@ -5015,52 +5015,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2005.586939522201</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C11" t="n">
-        <v>1636.624422581789</v>
+        <v>942.9472709150255</v>
       </c>
       <c r="D11" t="n">
-        <v>1278.358723975039</v>
+        <v>942.9472709150255</v>
       </c>
       <c r="E11" t="n">
-        <v>892.5704713767946</v>
+        <v>942.9472709150255</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5845665871869</v>
+        <v>531.961366125418</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218343</v>
+        <v>116.8889159704145</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
@@ -5069,22 +5069,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>3009.337405520489</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W11" t="n">
-        <v>3009.337405520489</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X11" t="n">
-        <v>2635.871647259409</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y11" t="n">
-        <v>2245.732315283597</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="12">
@@ -5109,13 +5109,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
         <v>160.189385922801</v>
@@ -5124,16 +5124,16 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
         <v>2407.411984886741</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>848.0708164780102</v>
+        <v>645.3078929297413</v>
       </c>
       <c r="C13" t="n">
-        <v>679.1346335501038</v>
+        <v>476.3717100018344</v>
       </c>
       <c r="D13" t="n">
-        <v>529.017994137768</v>
+        <v>326.2550705894986</v>
       </c>
       <c r="E13" t="n">
-        <v>381.1049005553749</v>
+        <v>178.3419770071055</v>
       </c>
       <c r="F13" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279953</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1705.527932658018</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U13" t="n">
-        <v>1416.425065783662</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V13" t="n">
-        <v>1416.425065783662</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W13" t="n">
-        <v>1127.007895746701</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X13" t="n">
-        <v>1029.71928130825</v>
+        <v>866.1004720732715</v>
       </c>
       <c r="Y13" t="n">
-        <v>1029.71928130825</v>
+        <v>645.3078929297413</v>
       </c>
     </row>
     <row r="14">
@@ -5264,61 +5264,61 @@
         <v>1216.298465372157</v>
       </c>
       <c r="F14" t="n">
-        <v>805.3125605825494</v>
+        <v>805.3125605825496</v>
       </c>
       <c r="G14" t="n">
         <v>390.8581126227286</v>
       </c>
       <c r="H14" t="n">
-        <v>99.60362721290821</v>
+        <v>99.60362721290822</v>
       </c>
       <c r="I14" t="n">
-        <v>81.43225808214882</v>
+        <v>81.43225808214881</v>
       </c>
       <c r="J14" t="n">
         <v>321.7197547946562</v>
       </c>
       <c r="K14" t="n">
-        <v>732.5869425049086</v>
+        <v>732.5869425049082</v>
       </c>
       <c r="L14" t="n">
-        <v>1279.205782079391</v>
+        <v>1279.205782079389</v>
       </c>
       <c r="M14" t="n">
-        <v>1919.094000724846</v>
+        <v>1919.094000724845</v>
       </c>
       <c r="N14" t="n">
-        <v>2573.950088109355</v>
+        <v>2573.950088109353</v>
       </c>
       <c r="O14" t="n">
-        <v>3178.976860646706</v>
+        <v>3178.976860646705</v>
       </c>
       <c r="P14" t="n">
-        <v>3660.852212359283</v>
+        <v>3660.852212359282</v>
       </c>
       <c r="Q14" t="n">
-        <v>3974.547786707331</v>
+        <v>3974.54778670733</v>
       </c>
       <c r="R14" t="n">
-        <v>4071.612904107441</v>
+        <v>4071.61290410744</v>
       </c>
       <c r="S14" t="n">
-        <v>3976.484517462816</v>
+        <v>4064.063787712697</v>
       </c>
       <c r="T14" t="n">
-        <v>3773.21207445645</v>
+        <v>4064.063787712697</v>
       </c>
       <c r="U14" t="n">
-        <v>3773.21207445645</v>
+        <v>3810.582751162148</v>
       </c>
       <c r="V14" t="n">
-        <v>3442.14918711288</v>
+        <v>3479.519863818578</v>
       </c>
       <c r="W14" t="n">
-        <v>3089.380531842765</v>
+        <v>3479.519863818578</v>
       </c>
       <c r="X14" t="n">
-        <v>2715.914773581685</v>
+        <v>3106.054105557498</v>
       </c>
       <c r="Y14" t="n">
         <v>2715.914773581685</v>
@@ -5352,25 +5352,25 @@
         <v>89.05497268527733</v>
       </c>
       <c r="I15" t="n">
-        <v>81.43225808214882</v>
+        <v>81.43225808214881</v>
       </c>
       <c r="J15" t="n">
-        <v>81.43225808214882</v>
+        <v>205.727998032977</v>
       </c>
       <c r="K15" t="n">
-        <v>372.0282999172189</v>
+        <v>496.324039868047</v>
       </c>
       <c r="L15" t="n">
-        <v>809.0930810985877</v>
+        <v>933.3888210494157</v>
       </c>
       <c r="M15" t="n">
-        <v>1338.483933895593</v>
+        <v>940.1502935420008</v>
       </c>
       <c r="N15" t="n">
-        <v>1870.345884643154</v>
+        <v>1497.961191876644</v>
       </c>
       <c r="O15" t="n">
-        <v>2358.414084216033</v>
+        <v>1986.029391449523</v>
       </c>
       <c r="P15" t="n">
         <v>2358.414084216033</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>540.5234715620605</v>
+        <v>862.7137436187026</v>
       </c>
       <c r="C16" t="n">
-        <v>540.5234715620605</v>
+        <v>693.7775606907957</v>
       </c>
       <c r="D16" t="n">
-        <v>540.5234715620605</v>
+        <v>543.6609212784599</v>
       </c>
       <c r="E16" t="n">
-        <v>392.6103779796674</v>
+        <v>395.7478276960667</v>
       </c>
       <c r="F16" t="n">
-        <v>392.6103779796674</v>
+        <v>248.8578801981564</v>
       </c>
       <c r="G16" t="n">
-        <v>225.1847558636599</v>
+        <v>81.43225808214881</v>
       </c>
       <c r="H16" t="n">
-        <v>81.43225808214882</v>
+        <v>81.43225808214881</v>
       </c>
       <c r="I16" t="n">
-        <v>81.43225808214882</v>
+        <v>81.43225808214881</v>
       </c>
       <c r="J16" t="n">
-        <v>145.7639349251849</v>
+        <v>145.7639349251847</v>
       </c>
       <c r="K16" t="n">
-        <v>381.3174786021265</v>
+        <v>381.3174786021264</v>
       </c>
       <c r="L16" t="n">
-        <v>738.2713508649247</v>
+        <v>738.2713508649242</v>
       </c>
       <c r="M16" t="n">
-        <v>1125.018283634586</v>
+        <v>1125.018283634585</v>
       </c>
       <c r="N16" t="n">
         <v>1508.003855186735</v>
       </c>
       <c r="O16" t="n">
-        <v>1845.736723011684</v>
+        <v>1845.736723011683</v>
       </c>
       <c r="P16" t="n">
-        <v>2111.204854362885</v>
+        <v>2111.204854362884</v>
       </c>
       <c r="Q16" t="n">
-        <v>2211.566148063616</v>
+        <v>2211.566148063615</v>
       </c>
       <c r="R16" t="n">
-        <v>2134.200263210839</v>
+        <v>2211.566148063615</v>
       </c>
       <c r="S16" t="n">
-        <v>2134.200263210839</v>
+        <v>2211.566148063615</v>
       </c>
       <c r="T16" t="n">
-        <v>1913.618109774534</v>
+        <v>1990.98399462731</v>
       </c>
       <c r="U16" t="n">
-        <v>1624.530363691592</v>
+        <v>1701.896248544368</v>
       </c>
       <c r="V16" t="n">
-        <v>1369.845875485705</v>
+        <v>1447.211760338481</v>
       </c>
       <c r="W16" t="n">
-        <v>1170.954066433848</v>
+        <v>1157.79459030152</v>
       </c>
       <c r="X16" t="n">
-        <v>942.9645155358304</v>
+        <v>929.8050394035031</v>
       </c>
       <c r="Y16" t="n">
-        <v>722.1719363923003</v>
+        <v>929.8050394035029</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5489,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1940.050986789392</v>
+        <v>2119.566580433992</v>
       </c>
       <c r="C17" t="n">
-        <v>1603.017967174449</v>
+        <v>1782.533560819049</v>
       </c>
       <c r="D17" t="n">
-        <v>1276.681765893167</v>
+        <v>1456.197359537767</v>
       </c>
       <c r="E17" t="n">
-        <v>922.8230106203914</v>
+        <v>1102.338604264992</v>
       </c>
       <c r="F17" t="n">
-        <v>543.7666031562526</v>
+        <v>723.2821968008529</v>
       </c>
       <c r="G17" t="n">
         <v>340.7572461665006</v>
       </c>
       <c r="H17" t="n">
-        <v>81.43225808214882</v>
+        <v>81.43225808214881</v>
       </c>
       <c r="I17" t="n">
-        <v>81.43225808214882</v>
+        <v>81.43225808214881</v>
       </c>
       <c r="J17" t="n">
-        <v>321.7197547946557</v>
+        <v>321.7197547946562</v>
       </c>
       <c r="K17" t="n">
         <v>732.5869425049082</v>
@@ -5528,37 +5528,37 @@
         <v>2573.950088109354</v>
       </c>
       <c r="O17" t="n">
-        <v>3178.976860646706</v>
+        <v>3178.976860646705</v>
       </c>
       <c r="P17" t="n">
-        <v>3660.852212359283</v>
+        <v>3660.852212359282</v>
       </c>
       <c r="Q17" t="n">
-        <v>3974.547786707331</v>
+        <v>3974.54778670733</v>
       </c>
       <c r="R17" t="n">
-        <v>4071.612904107441</v>
+        <v>4071.61290410744</v>
       </c>
       <c r="S17" t="n">
-        <v>4007.334457982725</v>
+        <v>4071.61290410744</v>
       </c>
       <c r="T17" t="n">
-        <v>3835.991512301827</v>
+        <v>3900.269958426542</v>
       </c>
       <c r="U17" t="n">
-        <v>3614.439973076747</v>
+        <v>3793.955566721347</v>
       </c>
       <c r="V17" t="n">
-        <v>3315.306583058645</v>
+        <v>3494.822176703245</v>
       </c>
       <c r="W17" t="n">
-        <v>2994.467425113999</v>
+        <v>3173.983018758599</v>
       </c>
       <c r="X17" t="n">
-        <v>2652.931164178388</v>
+        <v>2832.446757822989</v>
       </c>
       <c r="Y17" t="n">
-        <v>2294.721329528045</v>
+        <v>2474.236923172646</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>89.05497268527733</v>
       </c>
       <c r="I18" t="n">
-        <v>81.43225808214882</v>
+        <v>81.43225808214881</v>
       </c>
       <c r="J18" t="n">
-        <v>81.43225808214882</v>
+        <v>81.43225808214881</v>
       </c>
       <c r="K18" t="n">
-        <v>81.43225808214882</v>
+        <v>346.0793523301369</v>
       </c>
       <c r="L18" t="n">
-        <v>518.4970392635176</v>
+        <v>783.1441335115056</v>
       </c>
       <c r="M18" t="n">
-        <v>1047.887892060523</v>
+        <v>1312.534986308511</v>
       </c>
       <c r="N18" t="n">
-        <v>1605.698790395166</v>
+        <v>1870.345884643154</v>
       </c>
       <c r="O18" t="n">
-        <v>2093.766989968045</v>
+        <v>2358.414084216033</v>
       </c>
       <c r="P18" t="n">
-        <v>2466.151682734555</v>
+        <v>2358.414084216033</v>
       </c>
       <c r="Q18" t="n">
         <v>2557.424193196089</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>800.8615978196013</v>
+        <v>800.861597819601</v>
       </c>
       <c r="C19" t="n">
-        <v>663.8549122171631</v>
+        <v>663.8549122171628</v>
       </c>
       <c r="D19" t="n">
-        <v>545.667770130296</v>
+        <v>616.7550132808591</v>
       </c>
       <c r="E19" t="n">
-        <v>429.6841738733716</v>
+        <v>500.7714170239346</v>
       </c>
       <c r="F19" t="n">
-        <v>328.7513833287305</v>
+        <v>385.8109668514929</v>
       </c>
       <c r="G19" t="n">
-        <v>193.2552585381912</v>
+        <v>250.3148420609539</v>
       </c>
       <c r="H19" t="n">
-        <v>81.43225808214882</v>
+        <v>138.4918416049116</v>
       </c>
       <c r="I19" t="n">
-        <v>81.43225808214882</v>
+        <v>81.43225808214881</v>
       </c>
       <c r="J19" t="n">
-        <v>177.0580352538767</v>
+        <v>177.0580352538766</v>
       </c>
       <c r="K19" t="n">
-        <v>443.9056792595102</v>
+        <v>443.90567925951</v>
       </c>
       <c r="L19" t="n">
-        <v>832.1536518510002</v>
+        <v>832.1536518509999</v>
       </c>
       <c r="M19" t="n">
-        <v>1250.194684949353</v>
+        <v>1250.194684949352</v>
       </c>
       <c r="N19" t="n">
         <v>1664.474356830194</v>
       </c>
       <c r="O19" t="n">
-        <v>2033.501324983835</v>
+        <v>2033.501324983834</v>
       </c>
       <c r="P19" t="n">
         <v>2330.263556663727</v>
       </c>
       <c r="Q19" t="n">
-        <v>2461.918950693151</v>
+        <v>2461.91895069315</v>
       </c>
       <c r="R19" t="n">
         <v>2416.482563165842</v>
       </c>
       <c r="S19" t="n">
-        <v>2261.557269175203</v>
+        <v>2261.557269175202</v>
       </c>
       <c r="T19" t="n">
-        <v>2072.904613064366</v>
+        <v>2072.904613064365</v>
       </c>
       <c r="U19" t="n">
-        <v>1815.746364306893</v>
+        <v>1815.746364306892</v>
       </c>
       <c r="V19" t="n">
-        <v>1592.991373426475</v>
+        <v>1592.991373426474</v>
       </c>
       <c r="W19" t="n">
-        <v>1335.503700714983</v>
+        <v>1335.503700714982</v>
       </c>
       <c r="X19" t="n">
         <v>1139.443647142434</v>
       </c>
       <c r="Y19" t="n">
-        <v>950.5805653243724</v>
+        <v>950.5805653243721</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5726,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2004.329432914108</v>
+        <v>1940.05098678939</v>
       </c>
       <c r="C20" t="n">
-        <v>1667.296413299165</v>
+        <v>1603.017967174447</v>
       </c>
       <c r="D20" t="n">
-        <v>1456.197359537769</v>
+        <v>1276.681765893165</v>
       </c>
       <c r="E20" t="n">
-        <v>1102.338604264993</v>
+        <v>922.8230106203898</v>
       </c>
       <c r="F20" t="n">
-        <v>723.2821968008542</v>
+        <v>543.7666031562509</v>
       </c>
       <c r="G20" t="n">
-        <v>340.7572461665006</v>
+        <v>161.2416525218985</v>
       </c>
       <c r="H20" t="n">
-        <v>81.43225808214882</v>
+        <v>81.43225808214881</v>
       </c>
       <c r="I20" t="n">
-        <v>81.43225808214882</v>
+        <v>81.43225808214881</v>
       </c>
       <c r="J20" t="n">
         <v>321.7197547946562</v>
       </c>
       <c r="K20" t="n">
-        <v>732.5869425049084</v>
+        <v>732.5869425049095</v>
       </c>
       <c r="L20" t="n">
-        <v>1279.20578207939</v>
+        <v>1279.205782079391</v>
       </c>
       <c r="M20" t="n">
-        <v>1919.094000724846</v>
+        <v>1919.094000724847</v>
       </c>
       <c r="N20" t="n">
         <v>2573.950088109355</v>
@@ -5768,34 +5768,34 @@
         <v>3178.976860646706</v>
       </c>
       <c r="P20" t="n">
-        <v>3660.852212359284</v>
+        <v>3660.852212359283</v>
       </c>
       <c r="Q20" t="n">
         <v>3974.547786707331</v>
       </c>
       <c r="R20" t="n">
-        <v>4071.612904107441</v>
+        <v>4071.61290410744</v>
       </c>
       <c r="S20" t="n">
-        <v>4071.612904107441</v>
+        <v>4007.334457982724</v>
       </c>
       <c r="T20" t="n">
-        <v>3900.269958426543</v>
+        <v>3835.991512301826</v>
       </c>
       <c r="U20" t="n">
-        <v>3678.718419201463</v>
+        <v>3614.439973076745</v>
       </c>
       <c r="V20" t="n">
-        <v>3379.585029183361</v>
+        <v>3315.306583058643</v>
       </c>
       <c r="W20" t="n">
-        <v>3058.745871238715</v>
+        <v>2994.467425113998</v>
       </c>
       <c r="X20" t="n">
-        <v>2717.209610303104</v>
+        <v>2652.931164178387</v>
       </c>
       <c r="Y20" t="n">
-        <v>2358.999775652761</v>
+        <v>2294.721329528043</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>89.05497268527733</v>
       </c>
       <c r="I21" t="n">
-        <v>81.43225808214882</v>
+        <v>81.43225808214881</v>
       </c>
       <c r="J21" t="n">
-        <v>172.7047685436826</v>
+        <v>205.727998032977</v>
       </c>
       <c r="K21" t="n">
-        <v>172.7047685436826</v>
+        <v>496.324039868047</v>
       </c>
       <c r="L21" t="n">
-        <v>609.7695497250514</v>
+        <v>933.3888210494157</v>
       </c>
       <c r="M21" t="n">
-        <v>1139.160402522057</v>
+        <v>1462.779673846421</v>
       </c>
       <c r="N21" t="n">
-        <v>1696.9713008567</v>
+        <v>2020.590572181064</v>
       </c>
       <c r="O21" t="n">
-        <v>2185.039500429579</v>
+        <v>2508.658771753943</v>
       </c>
       <c r="P21" t="n">
-        <v>2557.424193196089</v>
+        <v>2508.658771753943</v>
       </c>
       <c r="Q21" t="n">
         <v>2557.424193196089</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>846.2979853469101</v>
+        <v>871.9488409701646</v>
       </c>
       <c r="C22" t="n">
-        <v>709.2912997444718</v>
+        <v>734.9421553677263</v>
       </c>
       <c r="D22" t="n">
-        <v>591.1041576576046</v>
+        <v>616.7550132808592</v>
       </c>
       <c r="E22" t="n">
-        <v>475.1205614006801</v>
+        <v>500.7714170239348</v>
       </c>
       <c r="F22" t="n">
-        <v>360.1601112282384</v>
+        <v>385.810966851493</v>
       </c>
       <c r="G22" t="n">
-        <v>250.314842060954</v>
+        <v>250.3148420609541</v>
       </c>
       <c r="H22" t="n">
         <v>138.4918416049116</v>
       </c>
       <c r="I22" t="n">
-        <v>81.43225808214882</v>
+        <v>81.43225808214881</v>
       </c>
       <c r="J22" t="n">
-        <v>177.0580352538767</v>
+        <v>177.0580352538766</v>
       </c>
       <c r="K22" t="n">
-        <v>443.9056792595102</v>
+        <v>443.90567925951</v>
       </c>
       <c r="L22" t="n">
-        <v>832.1536518510002</v>
+        <v>832.1536518509998</v>
       </c>
       <c r="M22" t="n">
         <v>1250.194684949353</v>
@@ -5923,37 +5923,37 @@
         <v>1664.474356830194</v>
       </c>
       <c r="O22" t="n">
-        <v>2033.501324983835</v>
+        <v>2033.501324983834</v>
       </c>
       <c r="P22" t="n">
         <v>2330.263556663727</v>
       </c>
       <c r="Q22" t="n">
-        <v>2461.918950693151</v>
+        <v>2461.91895069315</v>
       </c>
       <c r="R22" t="n">
-        <v>2461.918950693151</v>
+        <v>2416.482563165842</v>
       </c>
       <c r="S22" t="n">
-        <v>2306.993656702511</v>
+        <v>2332.644512325766</v>
       </c>
       <c r="T22" t="n">
-        <v>2118.341000591674</v>
+        <v>2143.991856214929</v>
       </c>
       <c r="U22" t="n">
-        <v>1861.182751834202</v>
+        <v>1886.833607457456</v>
       </c>
       <c r="V22" t="n">
-        <v>1638.427760953783</v>
+        <v>1664.078616577038</v>
       </c>
       <c r="W22" t="n">
-        <v>1380.940088242291</v>
+        <v>1406.590943865546</v>
       </c>
       <c r="X22" t="n">
-        <v>1184.880034669743</v>
+        <v>1210.530890292997</v>
       </c>
       <c r="Y22" t="n">
-        <v>996.0169528516811</v>
+        <v>1021.667808474936</v>
       </c>
     </row>
     <row r="23">
@@ -5987,22 +5987,22 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J23" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951441</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L23" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O23" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P23" t="n">
         <v>3813.656640612703</v>
@@ -6020,10 +6020,10 @@
         <v>4017.391409283565</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W23" t="n">
         <v>3175.879079437414</v>
@@ -6066,22 +6066,22 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J24" t="n">
-        <v>216.5575109835859</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="K24" t="n">
-        <v>519.5985603334502</v>
+        <v>388.0214583249806</v>
       </c>
       <c r="L24" t="n">
-        <v>973.3971899277776</v>
+        <v>841.820087919308</v>
       </c>
       <c r="M24" t="n">
-        <v>1522.315654538067</v>
+        <v>1390.738552529597</v>
       </c>
       <c r="N24" t="n">
-        <v>2100.171002464469</v>
+        <v>1968.593900456</v>
       </c>
       <c r="O24" t="n">
-        <v>2555.644190323788</v>
+        <v>2474.99885540425</v>
       </c>
       <c r="P24" t="n">
         <v>2555.644190323788</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502104</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477722</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609051</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039807</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315388</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749447</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H25" t="n">
         <v>140.0574709897931</v>
@@ -6145,25 +6145,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J25" t="n">
-        <v>185.1742787042788</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443616</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L25" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M25" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N25" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O25" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P25" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q25" t="n">
         <v>2529.521427597205</v>
@@ -6172,22 +6172,22 @@
         <v>2487.049233352543</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U25" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V25" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W25" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y25" t="n">
         <v>1022.581387254981</v>
@@ -6206,28 +6206,28 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D26" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E26" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796684</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162851</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H26" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I26" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J26" t="n">
         <v>337.4933016076839</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951452</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L26" t="n">
         <v>1336.032957050963</v>
@@ -6242,34 +6242,34 @@
         <v>3311.067850233286</v>
       </c>
       <c r="P26" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q26" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R26" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W26" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="27">
@@ -6297,28 +6297,28 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H27" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I27" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J27" t="n">
-        <v>84.98040897511619</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K27" t="n">
-        <v>84.98040897511619</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L27" t="n">
-        <v>538.7790385694436</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M27" t="n">
-        <v>1087.697503179733</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N27" t="n">
-        <v>1665.552851106135</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O27" t="n">
-        <v>2171.957806054385</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P27" t="n">
         <v>2555.644190323788</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502087</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477706</v>
+        <v>735.8557341477714</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609037</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039795</v>
+        <v>501.6849958039797</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315379</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749439</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H28" t="n">
-        <v>140.0574709897929</v>
+        <v>140.0574709897927</v>
       </c>
       <c r="I28" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042786</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443615</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902793</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M28" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.878830313937</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P28" t="n">
-        <v>2392.45563102869</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597207</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357081</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.444469073041</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6440,19 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C29" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D29" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E29" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796669</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H29" t="n">
         <v>84.98040897511622</v>
@@ -6467,22 +6467,22 @@
         <v>766.6831886951459</v>
       </c>
       <c r="L29" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050965</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P29" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R29" t="n">
         <v>4249.020448755811</v>
@@ -6497,16 +6497,16 @@
         <v>3795.851627400162</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W29" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J30" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K30" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L30" t="n">
-        <v>538.7790385694436</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M30" t="n">
-        <v>1087.697503179733</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N30" t="n">
-        <v>1453.289737812102</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O30" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P30" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q30" t="n">
         <v>2555.644190323788</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502101</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477714</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749443</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H31" t="n">
         <v>140.0574709897931</v>
@@ -6619,7 +6619,7 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042787</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K31" t="n">
         <v>459.5287020443614</v>
@@ -6637,7 +6637,7 @@
         <v>2087.878830313936</v>
       </c>
       <c r="P31" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q31" t="n">
         <v>2529.521427597205</v>
@@ -6649,10 +6649,10 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V31" t="n">
         <v>1664.992195357083</v>
@@ -6661,7 +6661,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y31" t="n">
         <v>1022.581387254981</v>
@@ -6674,67 +6674,67 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112808</v>
       </c>
       <c r="C32" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497865</v>
       </c>
       <c r="D32" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943808</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796689</v>
       </c>
       <c r="G32" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162836</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I32" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076839</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951441</v>
       </c>
       <c r="L32" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O32" t="n">
         <v>3311.067850233287</v>
       </c>
       <c r="P32" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R32" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U32" t="n">
         <v>3795.851627400162</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W32" t="n">
         <v>3175.879079437415</v>
@@ -6771,31 +6771,31 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H33" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I33" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J33" t="n">
-        <v>84.98040897511622</v>
+        <v>165.6257438946549</v>
       </c>
       <c r="K33" t="n">
-        <v>84.98040897511622</v>
+        <v>468.6667932445192</v>
       </c>
       <c r="L33" t="n">
-        <v>538.7790385694436</v>
+        <v>922.4654228388466</v>
       </c>
       <c r="M33" t="n">
-        <v>1087.697503179733</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N33" t="n">
-        <v>1453.289737812102</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O33" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P33" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q33" t="n">
         <v>2555.644190323788</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502087</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477706</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609037</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039794</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315379</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749439</v>
       </c>
       <c r="H34" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897929</v>
       </c>
       <c r="I34" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042786</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443615</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902791</v>
       </c>
       <c r="M34" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N34" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966198</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357085</v>
       </c>
       <c r="W34" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073041</v>
       </c>
       <c r="Y34" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="35">
@@ -6920,67 +6920,67 @@
         <v>1458.093420216581</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796667</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I35" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951452</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L35" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050961</v>
       </c>
       <c r="M35" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746736</v>
       </c>
       <c r="N35" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P35" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R35" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W35" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X35" t="n">
         <v>2834.342818501802</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H36" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I36" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J36" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K36" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L36" t="n">
-        <v>538.7790385694436</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M36" t="n">
-        <v>1087.697503179733</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N36" t="n">
-        <v>1428.524759781583</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O36" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P36" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q36" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R36" t="n">
         <v>2555.644190323788</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502102</v>
+        <v>872.862419750209</v>
       </c>
       <c r="C37" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477709</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609049</v>
+        <v>617.668592060904</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039796</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315387</v>
+        <v>386.724545631538</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749446</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897931</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I37" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J37" t="n">
         <v>185.1742787042785</v>
@@ -7099,13 +7099,13 @@
         <v>459.5287020443614</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902788</v>
+        <v>857.382767690279</v>
       </c>
       <c r="M37" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N37" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O37" t="n">
         <v>2087.878830313936</v>
@@ -7114,31 +7114,31 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q37" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352541</v>
       </c>
       <c r="S37" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966194</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.7471862375</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W37" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073041</v>
       </c>
       <c r="Y37" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="38">
@@ -7151,34 +7151,34 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C38" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D38" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E38" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511606</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I38" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J38" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951443</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L38" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M38" t="n">
         <v>2001.213713746738</v>
@@ -7187,10 +7187,10 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O38" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P38" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q38" t="n">
         <v>4142.907144767228</v>
@@ -7199,16 +7199,16 @@
         <v>4249.020448755811</v>
       </c>
       <c r="S38" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W38" t="n">
         <v>3175.879079437414</v>
@@ -7251,28 +7251,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J39" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K39" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L39" t="n">
-        <v>538.7790385694436</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M39" t="n">
-        <v>1087.697503179733</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N39" t="n">
-        <v>1428.524759781583</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O39" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P39" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q39" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R39" t="n">
         <v>2555.644190323788</v>
@@ -7324,25 +7324,25 @@
         <v>251.294345074944</v>
       </c>
       <c r="H40" t="n">
-        <v>140.0574709897928</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I40" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042781</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443607</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902781</v>
       </c>
       <c r="M40" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N40" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354972</v>
       </c>
       <c r="O40" t="n">
         <v>2087.878830313935</v>
@@ -7351,10 +7351,10 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q40" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352541</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S40" t="n">
         <v>2333.272818966195</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C41" t="n">
         <v>1784.429621497863</v>
       </c>
       <c r="D41" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E41" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F41" t="n">
-        <v>725.178257479667</v>
+        <v>725.1782574796667</v>
       </c>
       <c r="G41" t="n">
         <v>342.8002736162838</v>
@@ -7409,22 +7409,22 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076839</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951441</v>
       </c>
       <c r="L41" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P41" t="n">
         <v>3813.656640612704</v>
@@ -7442,19 +7442,19 @@
         <v>4017.391409283565</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W41" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J42" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K42" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L42" t="n">
-        <v>301.7509472448914</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M42" t="n">
-        <v>850.6694118551806</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N42" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O42" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P42" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q42" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R42" t="n">
         <v>2555.644190323788</v>
@@ -7543,46 +7543,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502104</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477722</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D43" t="n">
-        <v>617.668592060905</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G43" t="n">
         <v>251.2943450749444</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I43" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042782</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443615</v>
+        <v>459.5287020443609</v>
       </c>
       <c r="L43" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M43" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N43" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O43" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P43" t="n">
         <v>2392.455631028688</v>
@@ -7591,25 +7591,25 @@
         <v>2529.521427597205</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U43" t="n">
         <v>1887.747186237502</v>
       </c>
       <c r="V43" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y43" t="n">
         <v>1022.581387254981</v>
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C44" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D44" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E44" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G44" t="n">
-        <v>342.8002736162836</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H44" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I44" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K44" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L44" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P44" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R44" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.718237382058</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W44" t="n">
-        <v>3175.879079437413</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X44" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y44" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="45">
@@ -7719,10 +7719,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H45" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I45" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J45" t="n">
         <v>216.5575109835859</v>
@@ -7734,19 +7734,19 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M45" t="n">
-        <v>973.3971899277776</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N45" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O45" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P45" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q45" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R45" t="n">
         <v>2555.644190323788</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502087</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477706</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609037</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039794</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315379</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749439</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H46" t="n">
-        <v>140.0574709897929</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I46" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042737</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443566</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902742</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M46" t="n">
-        <v>1285.552079040889</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N46" t="n">
-        <v>1709.719201354969</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O46" t="n">
-        <v>2087.878830313932</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P46" t="n">
-        <v>2392.455631028685</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q46" t="n">
-        <v>2529.521427597202</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R46" t="n">
-        <v>2487.049233352539</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S46" t="n">
-        <v>2333.272818966193</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127666</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U46" t="n">
-        <v>1887.747186237499</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357081</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.504522645589</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.444469073041</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y46" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
   </sheetData>
@@ -11452,7 +11452,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>33.63624132271832</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
         <v>106.7437663446525</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>144.9899196596986</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>286.3116626173976</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,10 +23425,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>34.70948605375837</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23467,22 +23467,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>129.3939270949704</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.068761237504219</v>
+        <v>87.77223878488766</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>201.239718576303</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9462261850435</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>113.4115973549849</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3149728036959</v>
       </c>
       <c r="I16" t="n">
-        <v>88.0991900397491</v>
+        <v>88.09919003974912</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>76.59222600424924</v>
       </c>
       <c r="S16" t="n">
         <v>184.9862434029472</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>89.62010737525262</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>177.7204377081544</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23780,13 +23780,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>63.63566166346874</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>114.0847760446872</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23893,13 +23893,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>70.37637071905775</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>13.8873830315226</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>56.48898768753514</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>114.084776044687</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>177.720437708156</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>63.63566166346871</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>25.394347067022</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>44.98202365203525</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>70.37637071905844</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>2.131628207280301e-13</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>-1.927095532965599e-12</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>-3.076650045841234e-12</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>-2.486899575160351e-13</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>849471.6036740394</v>
+        <v>849471.6036740391</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>933343.5632981493</v>
+        <v>933343.5632981492</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>431046.9291787489</v>
+      </c>
+      <c r="C2" t="n">
         <v>431046.9291787487</v>
-      </c>
-      <c r="C2" t="n">
-        <v>431046.9291787486</v>
       </c>
       <c r="D2" t="n">
         <v>431046.9291787485</v>
       </c>
       <c r="E2" t="n">
-        <v>358046.9539194668</v>
+        <v>358046.9539194665</v>
       </c>
       <c r="F2" t="n">
-        <v>393992.0794726567</v>
+        <v>393992.0794726564</v>
       </c>
       <c r="G2" t="n">
-        <v>422733.2498158648</v>
+        <v>422733.2498158647</v>
       </c>
       <c r="H2" t="n">
         <v>422733.2498158647</v>
       </c>
       <c r="I2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="J2" t="n">
-        <v>431046.9291787489</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="K2" t="n">
-        <v>431046.9291787488</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="L2" t="n">
         <v>431046.9291787487</v>
       </c>
       <c r="M2" t="n">
+        <v>431046.9291787489</v>
+      </c>
+      <c r="N2" t="n">
         <v>431046.9291787487</v>
-      </c>
-      <c r="N2" t="n">
-        <v>431046.9291787489</v>
       </c>
       <c r="O2" t="n">
         <v>431046.9291787486</v>
       </c>
       <c r="P2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787487</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>353244.2765738452</v>
+        <v>353244.2765738449</v>
       </c>
       <c r="C3" t="n">
-        <v>43511.74761819033</v>
+        <v>43511.74761819065</v>
       </c>
       <c r="D3" t="n">
-        <v>87233.51607513204</v>
+        <v>87233.51607513236</v>
       </c>
       <c r="E3" t="n">
-        <v>707780.857642954</v>
+        <v>707780.8576429535</v>
       </c>
       <c r="F3" t="n">
         <v>173736.0360376485</v>
       </c>
       <c r="G3" t="n">
-        <v>25288.16188177118</v>
+        <v>25288.16188177115</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>39037.89416668107</v>
+        <v>39037.8941666813</v>
       </c>
       <c r="J3" t="n">
-        <v>5970.841630864782</v>
+        <v>5970.841630864708</v>
       </c>
       <c r="K3" t="n">
-        <v>6942.380109547006</v>
+        <v>6942.380109547103</v>
       </c>
       <c r="L3" t="n">
-        <v>41060.19902194618</v>
+        <v>41060.19902194625</v>
       </c>
       <c r="M3" t="n">
-        <v>179249.6449383016</v>
+        <v>179249.6449383014</v>
       </c>
       <c r="N3" t="n">
-        <v>45679.31917376341</v>
+        <v>45679.31917376342</v>
       </c>
       <c r="O3" t="n">
-        <v>1.193711796076968e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>346684.9826106114</v>
+        <v>346684.9826106115</v>
       </c>
       <c r="C4" t="n">
         <v>333256.5422474307</v>
       </c>
       <c r="D4" t="n">
-        <v>305279.4906303399</v>
+        <v>305279.4906303398</v>
       </c>
       <c r="E4" t="n">
         <v>14649.95482218994</v>
@@ -26430,34 +26430,34 @@
         <v>14746.47430260429</v>
       </c>
       <c r="G4" t="n">
-        <v>46071.20600225462</v>
+        <v>46071.20600225459</v>
       </c>
       <c r="H4" t="n">
-        <v>46071.20600225461</v>
+        <v>46071.20600225459</v>
       </c>
       <c r="I4" t="n">
-        <v>45839.31483610851</v>
+        <v>45839.3148361085</v>
       </c>
       <c r="J4" t="n">
-        <v>45839.31483610866</v>
+        <v>45839.31483610848</v>
       </c>
       <c r="K4" t="n">
-        <v>45839.31483610847</v>
+        <v>45839.31483610848</v>
       </c>
       <c r="L4" t="n">
-        <v>45839.3148361085</v>
+        <v>45839.31483610868</v>
       </c>
       <c r="M4" t="n">
-        <v>45839.3148361085</v>
+        <v>45839.31483610862</v>
       </c>
       <c r="N4" t="n">
         <v>45839.3148361085</v>
       </c>
       <c r="O4" t="n">
+        <v>45839.31483610848</v>
+      </c>
+      <c r="P4" t="n">
         <v>45839.31483610849</v>
-      </c>
-      <c r="P4" t="n">
-        <v>45839.31483610861</v>
       </c>
     </row>
     <row r="5">
@@ -26467,28 +26467,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42833.58292690795</v>
+        <v>42833.58292690793</v>
       </c>
       <c r="C5" t="n">
         <v>45306.68319048216</v>
       </c>
       <c r="D5" t="n">
-        <v>50823.37311172269</v>
+        <v>50823.37311172271</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>88963.40690525345</v>
+        <v>88963.40690525342</v>
       </c>
       <c r="G5" t="n">
-        <v>91620.84500680173</v>
+        <v>91620.8450068017</v>
       </c>
       <c r="H5" t="n">
-        <v>91620.84500680173</v>
+        <v>91620.8450068017</v>
       </c>
       <c r="I5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="J5" t="n">
         <v>95106.43410215527</v>
@@ -26500,10 +26500,10 @@
         <v>95106.43410215527</v>
       </c>
       <c r="M5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="N5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="O5" t="n">
         <v>95106.43410215527</v>
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-311715.9129326158</v>
+        <v>-311715.9129326154</v>
       </c>
       <c r="C6" t="n">
-        <v>8971.956122645512</v>
+        <v>8971.956122645279</v>
       </c>
       <c r="D6" t="n">
-        <v>-12289.45063844619</v>
+        <v>-12289.45063844644</v>
       </c>
       <c r="E6" t="n">
-        <v>-438690.1991070705</v>
+        <v>-439037.8180368764</v>
       </c>
       <c r="F6" t="n">
-        <v>116546.1622271504</v>
+        <v>116369.710561883</v>
       </c>
       <c r="G6" t="n">
-        <v>259753.0369250373</v>
+        <v>259713.4479756902</v>
       </c>
       <c r="H6" t="n">
-        <v>285041.1988068084</v>
+        <v>285001.6098574613</v>
       </c>
       <c r="I6" t="n">
         <v>251063.2860738037</v>
@@ -26546,19 +26546,19 @@
         <v>284130.3386096202</v>
       </c>
       <c r="K6" t="n">
-        <v>283158.8001309381</v>
+        <v>283158.8001309379</v>
       </c>
       <c r="L6" t="n">
-        <v>249040.9812185388</v>
+        <v>249040.9812185386</v>
       </c>
       <c r="M6" t="n">
-        <v>110851.5353021833</v>
+        <v>110851.5353021836</v>
       </c>
       <c r="N6" t="n">
-        <v>244421.8610667217</v>
+        <v>244421.8610667215</v>
       </c>
       <c r="O6" t="n">
-        <v>290101.1802404848</v>
+        <v>290101.1802404849</v>
       </c>
       <c r="P6" t="n">
         <v>290101.1802404849</v>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H2" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I2" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J2" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K2" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L2" t="n">
+        <v>31.61020235221413</v>
+      </c>
+      <c r="M2" t="n">
+        <v>31.61020235221407</v>
+      </c>
+      <c r="N2" t="n">
         <v>31.61020235221394</v>
-      </c>
-      <c r="M2" t="n">
-        <v>31.61020235221395</v>
-      </c>
-      <c r="N2" t="n">
-        <v>31.61020235221395</v>
       </c>
       <c r="O2" t="n">
         <v>31.61020235221394</v>
       </c>
       <c r="P2" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>358.6466858622745</v>
+        <v>358.6466858622742</v>
       </c>
       <c r="C3" t="n">
         <v>396.859943267568</v>
       </c>
       <c r="D3" t="n">
-        <v>476.1157511985019</v>
+        <v>476.1157511985022</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.82047985378899</v>
+        <v>22.82047985378877</v>
       </c>
       <c r="C4" t="n">
         <v>49.79500702712463</v>
       </c>
       <c r="D4" t="n">
-        <v>112.1126601249234</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>1017.90322602686</v>
@@ -26811,16 +26811,16 @@
         <v>1062.255112188953</v>
       </c>
       <c r="J4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="K4" t="n">
         <v>1062.255112188953</v>
       </c>
       <c r="L4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="M4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="N4" t="n">
         <v>1062.255112188953</v>
@@ -26829,7 +26829,7 @@
         <v>1062.255112188953</v>
       </c>
       <c r="P4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.669775429036235e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221414</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.49213974509621e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>358.6466858622745</v>
+        <v>358.6466858622742</v>
       </c>
       <c r="C3" t="n">
-        <v>38.21325740529358</v>
+        <v>38.21325740529386</v>
       </c>
       <c r="D3" t="n">
-        <v>79.25580793093388</v>
+        <v>79.25580793093417</v>
       </c>
       <c r="E3" t="n">
-        <v>613.6609493947964</v>
+        <v>613.6609493947958</v>
       </c>
       <c r="F3" t="n">
         <v>152.1907655911211</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>36.19240443570334</v>
+        <v>36.19240443570357</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.82047985378899</v>
+        <v>22.82047985378877</v>
       </c>
       <c r="C4" t="n">
-        <v>26.97452717333563</v>
+        <v>26.97452717333586</v>
       </c>
       <c r="D4" t="n">
-        <v>62.3176530977988</v>
+        <v>62.31765309779902</v>
       </c>
       <c r="E4" t="n">
-        <v>719.2887952773694</v>
+        <v>719.288795277369</v>
       </c>
       <c r="F4" t="n">
         <v>186.5017706245674</v>
@@ -27030,22 +27030,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>44.35188616209257</v>
+        <v>44.3518861620928</v>
       </c>
       <c r="J4" t="n">
-        <v>22.82047985378854</v>
+        <v>22.82047985378877</v>
       </c>
       <c r="K4" t="n">
-        <v>26.97452717333609</v>
+        <v>26.97452717333586</v>
       </c>
       <c r="L4" t="n">
-        <v>62.3176530977988</v>
+        <v>62.31765309779857</v>
       </c>
       <c r="M4" t="n">
-        <v>719.2887952773694</v>
+        <v>719.288795277369</v>
       </c>
       <c r="N4" t="n">
-        <v>186.5017706245674</v>
+        <v>186.5017706245678</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.669775429036235e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>22.82047985378899</v>
+        <v>22.82047985378877</v>
       </c>
       <c r="K4" t="n">
-        <v>26.97452717333563</v>
+        <v>26.97452717333586</v>
       </c>
       <c r="L4" t="n">
-        <v>62.3176530977988</v>
+        <v>62.31765309779902</v>
       </c>
       <c r="M4" t="n">
-        <v>719.2887952773694</v>
+        <v>719.288795277369</v>
       </c>
       <c r="N4" t="n">
         <v>186.5017706245674</v>
@@ -27400,10 +27400,10 @@
         <v>154.8910599957111</v>
       </c>
       <c r="J2" t="n">
-        <v>35.8548150077587</v>
+        <v>58.6752948615478</v>
       </c>
       <c r="K2" t="n">
-        <v>36.68802846506779</v>
+        <v>31.18016039801315</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27418,10 +27418,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>18.39310061142061</v>
+        <v>1.080488824687393</v>
       </c>
       <c r="Q2" t="n">
-        <v>66.60797209390802</v>
+        <v>66.60797209390813</v>
       </c>
       <c r="R2" t="n">
         <v>125.0173372883187</v>
@@ -27458,13 +27458,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>149.8880191345268</v>
+        <v>149.888019134527</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>134.824600601612</v>
+        <v>150.8174197048131</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,13 +27473,13 @@
         <v>136.5720884426767</v>
       </c>
       <c r="H3" t="n">
-        <v>97.95740610601464</v>
+        <v>104.7850668566028</v>
       </c>
       <c r="I3" t="n">
-        <v>72.96222449038817</v>
+        <v>72.96222449038818</v>
       </c>
       <c r="J3" t="n">
-        <v>53.95452987271145</v>
+        <v>31.13405001892274</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27500,10 +27500,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>18.68909474793405</v>
+        <v>41.50957460172313</v>
       </c>
       <c r="R3" t="n">
-        <v>97.78325410484734</v>
+        <v>74.96277425105862</v>
       </c>
       <c r="S3" t="n">
         <v>157.3542209658498</v>
@@ -27555,31 +27555,31 @@
         <v>156.47706662591</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0012415365631</v>
+        <v>136.0012415365632</v>
       </c>
       <c r="J4" t="n">
-        <v>81.27090871888942</v>
+        <v>81.27090871888946</v>
       </c>
       <c r="K4" t="n">
-        <v>53.87383775545561</v>
+        <v>53.87383775545567</v>
       </c>
       <c r="L4" t="n">
-        <v>38.73208774694915</v>
+        <v>38.73208774694923</v>
       </c>
       <c r="M4" t="n">
-        <v>37.54636092591329</v>
+        <v>37.54636092591338</v>
       </c>
       <c r="N4" t="n">
-        <v>28.71669752884516</v>
+        <v>28.71669752884524</v>
       </c>
       <c r="O4" t="n">
-        <v>47.04278973402894</v>
+        <v>47.04278973402901</v>
       </c>
       <c r="P4" t="n">
-        <v>59.50774980797225</v>
+        <v>59.50774980797232</v>
       </c>
       <c r="Q4" t="n">
-        <v>97.3493520642424</v>
+        <v>97.34935206424245</v>
       </c>
       <c r="R4" t="n">
         <v>148.2136125529923</v>
@@ -27628,7 +27628,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>383.7388905389833</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.1357392253592</v>
@@ -27637,7 +27637,7 @@
         <v>148.9685811771479</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>33.53389756610792</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0.2236106924079309</v>
       </c>
       <c r="R5" t="n">
-        <v>115.3674336481769</v>
+        <v>65.57242662105223</v>
       </c>
       <c r="S5" t="n">
         <v>172.6645079492214</v>
@@ -27695,10 +27695,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>159.8665687257959</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>97.65005853751413</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27707,13 +27707,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>86.69488686188785</v>
+        <v>136.4898938890125</v>
       </c>
       <c r="H6" t="n">
         <v>103.9912405093721</v>
       </c>
       <c r="I6" t="n">
-        <v>20.33727340070169</v>
+        <v>70.13228042782632</v>
       </c>
       <c r="J6" t="n">
         <v>46.18894706358476</v>
@@ -27743,10 +27743,10 @@
         <v>42.88497470197427</v>
       </c>
       <c r="S6" t="n">
-        <v>155.8274931817798</v>
+        <v>106.0324861546552</v>
       </c>
       <c r="T6" t="n">
-        <v>183.8820976034065</v>
+        <v>196.7240278659264</v>
       </c>
       <c r="U6" t="n">
         <v>225.8852226550407</v>
@@ -27853,22 +27853,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>253.1602316460841</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>310.4053326960313</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>294.7633856167878</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>348.8462453336365</v>
       </c>
       <c r="H8" t="n">
-        <v>207.7600497819527</v>
+        <v>319.8727099068761</v>
       </c>
       <c r="I8" t="n">
         <v>136.685125759028</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>95.35315165846217</v>
+        <v>95.3531516584621</v>
       </c>
       <c r="S8" t="n">
-        <v>53.29137858519784</v>
+        <v>165.4040387101212</v>
       </c>
       <c r="T8" t="n">
-        <v>214.7171693596231</v>
+        <v>102.6045092346994</v>
       </c>
       <c r="U8" t="n">
         <v>251.1925302541847</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>257.6184405535454</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27938,22 +27938,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>45.53242033047752</v>
+        <v>122.7135795880139</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.3194191323308</v>
+        <v>24.20675900740719</v>
       </c>
       <c r="H9" t="n">
-        <v>102.3448132540521</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>30.08282103867677</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.09559288881304</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>152.6609993460486</v>
@@ -27986,16 +27986,16 @@
         <v>196.0368949650912</v>
       </c>
       <c r="U9" t="n">
-        <v>200.6445994114409</v>
+        <v>225.8740072105222</v>
       </c>
       <c r="V9" t="n">
-        <v>120.6879270245018</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>93.66032507855405</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28032,28 +28032,28 @@
         <v>129.630951895051</v>
       </c>
       <c r="J10" t="n">
-        <v>66.29456574971169</v>
+        <v>66.29456574971167</v>
       </c>
       <c r="K10" t="n">
-        <v>29.26310570632468</v>
+        <v>29.26310570632462</v>
       </c>
       <c r="L10" t="n">
-        <v>7.238823902544823</v>
+        <v>7.238823902544752</v>
       </c>
       <c r="M10" t="n">
-        <v>4.341129883412151</v>
+        <v>0.7157523946084789</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>13.47628064116535</v>
+        <v>17.10165812996878</v>
       </c>
       <c r="P10" t="n">
-        <v>33.88793923037932</v>
+        <v>33.88793923037925</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.61152319847206</v>
+        <v>79.61152319847201</v>
       </c>
       <c r="R10" t="n">
         <v>138.6889896488451</v>
@@ -28281,7 +28281,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I17" t="n">
-        <v>17.98965543945178</v>
+        <v>17.98965543945181</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I20" t="n">
-        <v>17.98965543945178</v>
+        <v>17.98965543945181</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I23" t="n">
         <v>12.38037836605497</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605497</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605497</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605497</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605497</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221407</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221407</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605497</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="41">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605497</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.441795722059394</v>
+        <v>1.441795722059393</v>
       </c>
       <c r="H2" t="n">
-        <v>14.76579043854077</v>
+        <v>14.76579043854076</v>
       </c>
       <c r="I2" t="n">
-        <v>55.58482957469483</v>
+        <v>55.58482957469479</v>
       </c>
       <c r="J2" t="n">
-        <v>122.3706096651386</v>
+        <v>122.3706096651385</v>
       </c>
       <c r="K2" t="n">
-        <v>183.4018225799128</v>
+        <v>183.4018225799126</v>
       </c>
       <c r="L2" t="n">
-        <v>227.526178408888</v>
+        <v>227.5261784088878</v>
       </c>
       <c r="M2" t="n">
-        <v>253.1667130810617</v>
+        <v>253.1667130810615</v>
       </c>
       <c r="N2" t="n">
-        <v>252.2335434503799</v>
+        <v>252.2335434503797</v>
       </c>
       <c r="O2" t="n">
-        <v>242.9263589651349</v>
+        <v>242.9263589651347</v>
       </c>
       <c r="P2" t="n">
-        <v>207.3320270767936</v>
+        <v>207.3320270767934</v>
       </c>
       <c r="Q2" t="n">
-        <v>155.6977177805415</v>
+        <v>155.6977177805414</v>
       </c>
       <c r="R2" t="n">
-        <v>90.56820052581347</v>
+        <v>90.5682005258134</v>
       </c>
       <c r="S2" t="n">
-        <v>32.85492001642847</v>
+        <v>32.85492001642844</v>
       </c>
       <c r="T2" t="n">
-        <v>6.311460773314999</v>
+        <v>6.311460773314995</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1153436577647515</v>
+        <v>0.1153436577647514</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7714287205339488</v>
+        <v>0.7714287205339483</v>
       </c>
       <c r="H3" t="n">
-        <v>7.450377379893665</v>
+        <v>7.450377379893659</v>
       </c>
       <c r="I3" t="n">
-        <v>26.56015550961184</v>
+        <v>26.56015550961182</v>
       </c>
       <c r="J3" t="n">
-        <v>72.88309679395525</v>
+        <v>72.88309679395519</v>
       </c>
       <c r="K3" t="n">
-        <v>124.5688210697298</v>
+        <v>124.5688210697297</v>
       </c>
       <c r="L3" t="n">
-        <v>161.3748596336632</v>
+        <v>161.3748596336629</v>
       </c>
       <c r="M3" t="n">
-        <v>164.9545137758073</v>
+        <v>150.697830571107</v>
       </c>
       <c r="N3" t="n">
-        <v>153.2401523470702</v>
+        <v>154.1621919371221</v>
       </c>
       <c r="O3" t="n">
-        <v>165.4167242982334</v>
+        <v>165.4167242982332</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>147.3090510289782</v>
       </c>
       <c r="Q3" t="n">
-        <v>98.47219948429847</v>
+        <v>98.47219948429839</v>
       </c>
       <c r="R3" t="n">
-        <v>47.8962498591166</v>
+        <v>47.89624985911656</v>
       </c>
       <c r="S3" t="n">
-        <v>14.32895013798803</v>
+        <v>14.32895013798802</v>
       </c>
       <c r="T3" t="n">
-        <v>3.109399097239907</v>
+        <v>3.109399097239904</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05075188950881244</v>
+        <v>0.0507518895088124</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6467399253254129</v>
+        <v>0.6467399253254124</v>
       </c>
       <c r="H4" t="n">
-        <v>5.750105881529584</v>
+        <v>5.75010588152958</v>
       </c>
       <c r="I4" t="n">
-        <v>19.44923339069515</v>
+        <v>19.44923339069513</v>
       </c>
       <c r="J4" t="n">
-        <v>45.72451272050669</v>
+        <v>45.72451272050665</v>
       </c>
       <c r="K4" t="n">
-        <v>75.13942041507977</v>
+        <v>75.13942041507971</v>
       </c>
       <c r="L4" t="n">
-        <v>96.15258853428914</v>
+        <v>96.15258853428905</v>
       </c>
       <c r="M4" t="n">
-        <v>101.3794230216918</v>
+        <v>101.3794230216917</v>
       </c>
       <c r="N4" t="n">
-        <v>98.96884693638803</v>
+        <v>98.96884693638795</v>
       </c>
       <c r="O4" t="n">
-        <v>91.41374871781385</v>
+        <v>91.41374871781377</v>
       </c>
       <c r="P4" t="n">
-        <v>78.22025424117537</v>
+        <v>78.2202542411753</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.15564956520344</v>
+        <v>54.1556495652034</v>
       </c>
       <c r="R4" t="n">
-        <v>29.07977882417719</v>
+        <v>29.07977882417717</v>
       </c>
       <c r="S4" t="n">
         <v>11.27091306226196</v>
       </c>
       <c r="T4" t="n">
-        <v>2.763343317299491</v>
+        <v>2.763343317299489</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03527672319956802</v>
+        <v>0.03527672319956799</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.914033170647242</v>
+        <v>1.914033170647244</v>
       </c>
       <c r="H8" t="n">
-        <v>19.60209220889108</v>
+        <v>19.60209220889109</v>
       </c>
       <c r="I8" t="n">
-        <v>73.79076381137789</v>
+        <v>73.79076381137793</v>
       </c>
       <c r="J8" t="n">
-        <v>162.4511728172215</v>
+        <v>162.4511728172216</v>
       </c>
       <c r="K8" t="n">
-        <v>243.4721969307194</v>
+        <v>243.4721969307195</v>
       </c>
       <c r="L8" t="n">
-        <v>302.048789576915</v>
+        <v>302.0487895769152</v>
       </c>
       <c r="M8" t="n">
-        <v>336.0874769754129</v>
+        <v>336.087476975413</v>
       </c>
       <c r="N8" t="n">
-        <v>341.5257237215143</v>
+        <v>341.5257237215146</v>
       </c>
       <c r="O8" t="n">
-        <v>322.4930563808908</v>
+        <v>322.493056380891</v>
       </c>
       <c r="P8" t="n">
-        <v>275.240362480537</v>
+        <v>275.2403624805372</v>
       </c>
       <c r="Q8" t="n">
-        <v>206.6940495567326</v>
+        <v>206.6940495567327</v>
       </c>
       <c r="R8" t="n">
         <v>120.23238615567</v>
       </c>
       <c r="S8" t="n">
-        <v>43.61603087612408</v>
+        <v>43.61603087612411</v>
       </c>
       <c r="T8" t="n">
-        <v>8.378680204508308</v>
+        <v>8.378680204508314</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1531226536517794</v>
+        <v>0.1531226536517795</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31595,46 +31595,46 @@
         <v>1.024098030879797</v>
       </c>
       <c r="H9" t="n">
-        <v>9.890630982444353</v>
+        <v>9.890630982444359</v>
       </c>
       <c r="I9" t="n">
-        <v>35.2595155368702</v>
+        <v>35.25951553687022</v>
       </c>
       <c r="J9" t="n">
-        <v>96.75480562798992</v>
+        <v>96.75480562798998</v>
       </c>
       <c r="K9" t="n">
-        <v>165.3693736969363</v>
+        <v>165.3693736969364</v>
       </c>
       <c r="L9" t="n">
-        <v>222.3595307837909</v>
+        <v>222.3595307837911</v>
       </c>
       <c r="M9" t="n">
-        <v>254.2466940469417</v>
+        <v>254.246694046942</v>
       </c>
       <c r="N9" t="n">
-        <v>243.4543722082567</v>
+        <v>243.454372208257</v>
       </c>
       <c r="O9" t="n">
-        <v>189.3752746148962</v>
+        <v>243.6589731628788</v>
       </c>
       <c r="P9" t="n">
-        <v>195.5578073177394</v>
+        <v>141.2741087697571</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.7252153102</v>
+        <v>130.7252153102001</v>
       </c>
       <c r="R9" t="n">
-        <v>63.58391107515091</v>
+        <v>63.58391107515094</v>
       </c>
       <c r="S9" t="n">
-        <v>19.02217175778919</v>
+        <v>19.0221717577892</v>
       </c>
       <c r="T9" t="n">
-        <v>4.127833729730407</v>
+        <v>4.127833729730409</v>
       </c>
       <c r="U9" t="n">
-        <v>0.06737487045261822</v>
+        <v>0.06737487045261827</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8585693874071345</v>
+        <v>0.8585693874071351</v>
       </c>
       <c r="H10" t="n">
-        <v>7.633462371674347</v>
+        <v>7.633462371674351</v>
       </c>
       <c r="I10" t="n">
-        <v>25.81952303220729</v>
+        <v>25.8195230322073</v>
       </c>
       <c r="J10" t="n">
-        <v>60.70085568968441</v>
+        <v>60.70085568968445</v>
       </c>
       <c r="K10" t="n">
-        <v>99.7501524642107</v>
+        <v>99.75015246421076</v>
       </c>
       <c r="L10" t="n">
         <v>127.6458523786935</v>
       </c>
       <c r="M10" t="n">
-        <v>134.5846540641929</v>
+        <v>134.584654064193</v>
       </c>
       <c r="N10" t="n">
-        <v>131.3845318020391</v>
+        <v>131.3845318020392</v>
       </c>
       <c r="O10" t="n">
-        <v>121.3548803218739</v>
+        <v>121.354880321874</v>
       </c>
       <c r="P10" t="n">
-        <v>103.8400648187683</v>
+        <v>103.8400648187684</v>
       </c>
       <c r="Q10" t="n">
-        <v>71.89347843097379</v>
+        <v>71.89347843097383</v>
       </c>
       <c r="R10" t="n">
-        <v>38.60440172832442</v>
+        <v>38.60440172832445</v>
       </c>
       <c r="S10" t="n">
-        <v>14.9625228696316</v>
+        <v>14.96252286963161</v>
       </c>
       <c r="T10" t="n">
-        <v>3.66843283710321</v>
+        <v>3.668432837103212</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04683105749493467</v>
+        <v>0.04683105749493469</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.992834034912235</v>
+        <v>4.992834034912234</v>
       </c>
       <c r="H14" t="n">
-        <v>51.13286156004494</v>
+        <v>51.13286156004493</v>
       </c>
       <c r="I14" t="n">
         <v>192.4862341309541</v>
       </c>
       <c r="J14" t="n">
-        <v>423.7605476706327</v>
+        <v>423.7605476706326</v>
       </c>
       <c r="K14" t="n">
-        <v>635.1072123684677</v>
+        <v>635.1072123684676</v>
       </c>
       <c r="L14" t="n">
-        <v>787.9066569644132</v>
+        <v>787.9066569644131</v>
       </c>
       <c r="M14" t="n">
-        <v>876.6979692327836</v>
+        <v>876.6979692327835</v>
       </c>
       <c r="N14" t="n">
-        <v>890.8838589344781</v>
+        <v>890.883858934478</v>
       </c>
       <c r="O14" t="n">
-        <v>841.2363654998195</v>
+        <v>841.2363654998194</v>
       </c>
       <c r="P14" t="n">
-        <v>717.9757752629235</v>
+        <v>717.9757752629234</v>
       </c>
       <c r="Q14" t="n">
-        <v>539.169906387629</v>
+        <v>539.1699063876289</v>
       </c>
       <c r="R14" t="n">
-        <v>313.631110945556</v>
+        <v>313.6311109455559</v>
       </c>
       <c r="S14" t="n">
         <v>113.7742055705627</v>
@@ -32029,7 +32029,7 @@
         <v>21.85613098782832</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3994267227929788</v>
+        <v>0.3994267227929786</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,43 +32069,43 @@
         <v>2.67140171971743</v>
       </c>
       <c r="H15" t="n">
-        <v>25.80011660884993</v>
+        <v>25.80011660884992</v>
       </c>
       <c r="I15" t="n">
-        <v>91.97589254290277</v>
+        <v>91.97589254290276</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>252.3888791422507</v>
       </c>
       <c r="K15" t="n">
-        <v>431.3727943633186</v>
+        <v>431.3727943633185</v>
       </c>
       <c r="L15" t="n">
-        <v>580.0339567307518</v>
+        <v>580.0339567307517</v>
       </c>
       <c r="M15" t="n">
-        <v>676.8722690705085</v>
+        <v>148.9638041165487</v>
       </c>
       <c r="N15" t="n">
-        <v>668.5760057677383</v>
+        <v>694.7870639365083</v>
       </c>
       <c r="O15" t="n">
-        <v>635.5944258311906</v>
+        <v>635.5944258311905</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>510.1205617239363</v>
       </c>
       <c r="Q15" t="n">
-        <v>341.0020861870882</v>
+        <v>341.0020861870881</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>49.62011527633031</v>
+        <v>49.6201152763303</v>
       </c>
       <c r="T15" t="n">
-        <v>10.76762359833473</v>
+        <v>10.76762359833472</v>
       </c>
       <c r="U15" t="n">
         <v>0.1757501131393047</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.239613463611248</v>
+        <v>2.239613463611247</v>
       </c>
       <c r="H16" t="n">
-        <v>19.91219970374366</v>
+        <v>19.91219970374365</v>
       </c>
       <c r="I16" t="n">
-        <v>67.35128488750918</v>
+        <v>67.35128488750917</v>
       </c>
       <c r="J16" t="n">
         <v>158.3406718773152</v>
@@ -32163,28 +32163,28 @@
         <v>332.9694416718032</v>
       </c>
       <c r="M16" t="n">
-        <v>351.0695904822613</v>
+        <v>351.0695904822612</v>
       </c>
       <c r="N16" t="n">
-        <v>342.7219402997106</v>
+        <v>342.7219402997105</v>
       </c>
       <c r="O16" t="n">
-        <v>316.5591830202518</v>
+        <v>316.5591830202517</v>
       </c>
       <c r="P16" t="n">
-        <v>270.8710683625821</v>
+        <v>270.871068362582</v>
       </c>
       <c r="Q16" t="n">
         <v>187.5370873938473</v>
       </c>
       <c r="R16" t="n">
-        <v>100.7011653729203</v>
+        <v>100.7011653729202</v>
       </c>
       <c r="S16" t="n">
         <v>39.03035463402509</v>
       </c>
       <c r="T16" t="n">
-        <v>9.569257526338966</v>
+        <v>9.569257526338964</v>
       </c>
       <c r="U16" t="n">
         <v>0.1221607343787955</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.992834034912235</v>
+        <v>4.992834034912234</v>
       </c>
       <c r="H17" t="n">
-        <v>51.13286156004494</v>
+        <v>51.13286156004493</v>
       </c>
       <c r="I17" t="n">
         <v>192.4862341309541</v>
       </c>
       <c r="J17" t="n">
-        <v>423.7605476706327</v>
+        <v>423.7605476706326</v>
       </c>
       <c r="K17" t="n">
-        <v>635.1072123684677</v>
+        <v>635.1072123684676</v>
       </c>
       <c r="L17" t="n">
-        <v>787.9066569644132</v>
+        <v>787.9066569644131</v>
       </c>
       <c r="M17" t="n">
-        <v>876.6979692327836</v>
+        <v>876.6979692327835</v>
       </c>
       <c r="N17" t="n">
-        <v>890.8838589344781</v>
+        <v>890.883858934478</v>
       </c>
       <c r="O17" t="n">
-        <v>841.2363654998195</v>
+        <v>841.2363654998194</v>
       </c>
       <c r="P17" t="n">
-        <v>717.9757752629235</v>
+        <v>717.9757752629234</v>
       </c>
       <c r="Q17" t="n">
-        <v>539.169906387629</v>
+        <v>539.1699063876289</v>
       </c>
       <c r="R17" t="n">
-        <v>313.631110945556</v>
+        <v>313.6311109455559</v>
       </c>
       <c r="S17" t="n">
         <v>113.7742055705627</v>
@@ -32266,7 +32266,7 @@
         <v>21.85613098782832</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3994267227929788</v>
+        <v>0.3994267227929786</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,43 +32306,43 @@
         <v>2.67140171971743</v>
       </c>
       <c r="H18" t="n">
-        <v>25.80011660884993</v>
+        <v>25.80011660884992</v>
       </c>
       <c r="I18" t="n">
-        <v>91.97589254290277</v>
+        <v>91.97589254290276</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>405.161736194549</v>
       </c>
       <c r="L18" t="n">
-        <v>580.0339567307518</v>
+        <v>580.0339567307517</v>
       </c>
       <c r="M18" t="n">
-        <v>676.8722690705085</v>
+        <v>676.8722690705084</v>
       </c>
       <c r="N18" t="n">
-        <v>694.7870639365084</v>
+        <v>694.7870639365083</v>
       </c>
       <c r="O18" t="n">
-        <v>635.5944258311906</v>
+        <v>635.5944258311905</v>
       </c>
       <c r="P18" t="n">
-        <v>510.1205617239364</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>232.1762290976718</v>
+        <v>341.0020861870881</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>49.62011527633031</v>
+        <v>49.6201152763303</v>
       </c>
       <c r="T18" t="n">
-        <v>10.76762359833473</v>
+        <v>10.76762359833472</v>
       </c>
       <c r="U18" t="n">
         <v>0.1757501131393047</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.239613463611248</v>
+        <v>2.239613463611247</v>
       </c>
       <c r="H19" t="n">
-        <v>19.91219970374366</v>
+        <v>19.91219970374365</v>
       </c>
       <c r="I19" t="n">
-        <v>67.35128488750918</v>
+        <v>67.35128488750917</v>
       </c>
       <c r="J19" t="n">
         <v>158.3406718773152</v>
@@ -32400,28 +32400,28 @@
         <v>332.9694416718032</v>
       </c>
       <c r="M19" t="n">
-        <v>351.0695904822613</v>
+        <v>351.0695904822612</v>
       </c>
       <c r="N19" t="n">
-        <v>342.7219402997106</v>
+        <v>342.7219402997105</v>
       </c>
       <c r="O19" t="n">
-        <v>316.5591830202518</v>
+        <v>316.5591830202517</v>
       </c>
       <c r="P19" t="n">
-        <v>270.8710683625821</v>
+        <v>270.871068362582</v>
       </c>
       <c r="Q19" t="n">
         <v>187.5370873938473</v>
       </c>
       <c r="R19" t="n">
-        <v>100.7011653729203</v>
+        <v>100.7011653729202</v>
       </c>
       <c r="S19" t="n">
         <v>39.03035463402509</v>
       </c>
       <c r="T19" t="n">
-        <v>9.569257526338966</v>
+        <v>9.569257526338964</v>
       </c>
       <c r="U19" t="n">
         <v>0.1221607343787955</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.992834034912235</v>
+        <v>4.992834034912234</v>
       </c>
       <c r="H20" t="n">
-        <v>51.13286156004494</v>
+        <v>51.13286156004493</v>
       </c>
       <c r="I20" t="n">
         <v>192.4862341309541</v>
       </c>
       <c r="J20" t="n">
-        <v>423.7605476706327</v>
+        <v>423.7605476706326</v>
       </c>
       <c r="K20" t="n">
-        <v>635.1072123684677</v>
+        <v>635.1072123684676</v>
       </c>
       <c r="L20" t="n">
-        <v>787.9066569644132</v>
+        <v>787.9066569644131</v>
       </c>
       <c r="M20" t="n">
-        <v>876.6979692327836</v>
+        <v>876.6979692327835</v>
       </c>
       <c r="N20" t="n">
-        <v>890.8838589344781</v>
+        <v>890.883858934478</v>
       </c>
       <c r="O20" t="n">
-        <v>841.2363654998195</v>
+        <v>841.2363654998194</v>
       </c>
       <c r="P20" t="n">
-        <v>717.9757752629235</v>
+        <v>717.9757752629234</v>
       </c>
       <c r="Q20" t="n">
-        <v>539.169906387629</v>
+        <v>539.1699063876289</v>
       </c>
       <c r="R20" t="n">
-        <v>313.631110945556</v>
+        <v>313.6311109455559</v>
       </c>
       <c r="S20" t="n">
         <v>113.7742055705627</v>
@@ -32503,7 +32503,7 @@
         <v>21.85613098782832</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3994267227929788</v>
+        <v>0.3994267227929786</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,43 +32543,43 @@
         <v>2.67140171971743</v>
       </c>
       <c r="H21" t="n">
-        <v>25.80011660884993</v>
+        <v>25.80011660884992</v>
       </c>
       <c r="I21" t="n">
-        <v>91.97589254290277</v>
+        <v>91.97589254290276</v>
       </c>
       <c r="J21" t="n">
-        <v>219.032081678317</v>
+        <v>252.3888791422507</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>431.3727943633185</v>
       </c>
       <c r="L21" t="n">
-        <v>580.0339567307518</v>
+        <v>580.0339567307517</v>
       </c>
       <c r="M21" t="n">
-        <v>676.8722690705085</v>
+        <v>676.8722690705084</v>
       </c>
       <c r="N21" t="n">
-        <v>694.7870639365084</v>
+        <v>694.7870639365083</v>
       </c>
       <c r="O21" t="n">
-        <v>635.5944258311906</v>
+        <v>635.5944258311905</v>
       </c>
       <c r="P21" t="n">
-        <v>510.1205617239364</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>189.2397755427345</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>49.62011527633031</v>
+        <v>49.6201152763303</v>
       </c>
       <c r="T21" t="n">
-        <v>10.76762359833473</v>
+        <v>10.76762359833472</v>
       </c>
       <c r="U21" t="n">
         <v>0.1757501131393047</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.239613463611248</v>
+        <v>2.239613463611247</v>
       </c>
       <c r="H22" t="n">
-        <v>19.91219970374366</v>
+        <v>19.91219970374365</v>
       </c>
       <c r="I22" t="n">
-        <v>67.35128488750918</v>
+        <v>67.35128488750917</v>
       </c>
       <c r="J22" t="n">
         <v>158.3406718773152</v>
@@ -32637,28 +32637,28 @@
         <v>332.9694416718032</v>
       </c>
       <c r="M22" t="n">
-        <v>351.0695904822613</v>
+        <v>351.0695904822612</v>
       </c>
       <c r="N22" t="n">
-        <v>342.7219402997106</v>
+        <v>342.7219402997105</v>
       </c>
       <c r="O22" t="n">
-        <v>316.5591830202518</v>
+        <v>316.5591830202517</v>
       </c>
       <c r="P22" t="n">
-        <v>270.8710683625821</v>
+        <v>270.871068362582</v>
       </c>
       <c r="Q22" t="n">
         <v>187.5370873938473</v>
       </c>
       <c r="R22" t="n">
-        <v>100.7011653729203</v>
+        <v>100.7011653729202</v>
       </c>
       <c r="S22" t="n">
         <v>39.03035463402509</v>
       </c>
       <c r="T22" t="n">
-        <v>9.569257526338966</v>
+        <v>9.569257526338964</v>
       </c>
       <c r="U22" t="n">
         <v>0.1221607343787955</v>
@@ -32786,7 +32786,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J24" t="n">
-        <v>259.7437903115855</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>443.943509024727</v>
@@ -32801,10 +32801,10 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O24" t="n">
-        <v>602.6701715750701</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>215.4343416764904</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33023,10 +33023,10 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L27" t="n">
         <v>596.9368339155584</v>
@@ -33035,13 +33035,13 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N27" t="n">
-        <v>715.0339827160628</v>
+        <v>272.5760810583997</v>
       </c>
       <c r="O27" t="n">
         <v>654.1164009578283</v>
       </c>
       <c r="P27" t="n">
-        <v>521.5364117268584</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33260,10 +33260,10 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L30" t="n">
         <v>596.9368339155584</v>
@@ -33272,16 +33272,16 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N30" t="n">
-        <v>500.6267975705753</v>
+        <v>663.5877533333045</v>
       </c>
       <c r="O30" t="n">
         <v>654.1164009578283</v>
       </c>
       <c r="P30" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33497,10 +33497,10 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>208.297560928827</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L33" t="n">
         <v>596.9368339155584</v>
@@ -33509,16 +33509,16 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N33" t="n">
-        <v>500.6267975705753</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O33" t="n">
         <v>654.1164009578283</v>
       </c>
       <c r="P33" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33734,10 +33734,10 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L36" t="n">
         <v>596.9368339155584</v>
@@ -33746,19 +33746,19 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N36" t="n">
-        <v>475.6116682468181</v>
+        <v>663.5877533333045</v>
       </c>
       <c r="O36" t="n">
         <v>654.1164009578283</v>
       </c>
       <c r="P36" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>51.06610426486996</v>
@@ -33971,10 +33971,10 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L39" t="n">
         <v>596.9368339155584</v>
@@ -33983,19 +33983,19 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N39" t="n">
-        <v>475.6116682468181</v>
+        <v>663.5877533333045</v>
       </c>
       <c r="O39" t="n">
         <v>654.1164009578283</v>
       </c>
       <c r="P39" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>51.06610426486996</v>
@@ -34208,13 +34208,13 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L42" t="n">
-        <v>357.5145194463138</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M42" t="n">
         <v>696.5971294879669</v>
@@ -34223,16 +34223,16 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O42" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P42" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>51.06610426486996</v>
@@ -34454,22 +34454,22 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N45" t="n">
-        <v>591.0665301174799</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O45" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P45" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>51.06610426486996</v>
@@ -34705,13 +34705,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>22.82047985378899</v>
+        <v>22.82047985378877</v>
       </c>
       <c r="N2" t="n">
-        <v>22.82047985378899</v>
+        <v>22.82047985378877</v>
       </c>
       <c r="O2" t="n">
-        <v>12.82814754344815</v>
+        <v>12.82814754344795</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34781,19 +34781,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>22.82047985378899</v>
+        <v>22.82047985378877</v>
       </c>
       <c r="M3" t="n">
-        <v>22.82047985378899</v>
+        <v>8.563796649088699</v>
       </c>
       <c r="N3" t="n">
-        <v>21.89844026373691</v>
+        <v>22.82047985378877</v>
       </c>
       <c r="O3" t="n">
-        <v>22.82047985378899</v>
+        <v>22.82047985378877</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>13.334643614648</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>23.38234588573883</v>
+        <v>23.38234588573897</v>
       </c>
       <c r="L8" t="n">
-        <v>66.28237460692776</v>
+        <v>66.28237460692793</v>
       </c>
       <c r="M8" t="n">
-        <v>105.7412437481401</v>
+        <v>105.7412437481403</v>
       </c>
       <c r="N8" t="n">
-        <v>112.1126601249234</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="O8" t="n">
-        <v>92.39484495920411</v>
+        <v>92.39484495920428</v>
       </c>
       <c r="P8" t="n">
-        <v>44.00736672526745</v>
+        <v>44.00736672526762</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>27.5279347225773</v>
+        <v>27.52793472257738</v>
       </c>
       <c r="L9" t="n">
-        <v>83.80515100391676</v>
+        <v>83.8051510039169</v>
       </c>
       <c r="M9" t="n">
-        <v>112.1126601249234</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="N9" t="n">
-        <v>112.1126601249234</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="O9" t="n">
-        <v>46.77903017045175</v>
+        <v>101.0627287184343</v>
       </c>
       <c r="P9" t="n">
-        <v>61.58339990340917</v>
+        <v>7.299701355426831</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35340,7 +35340,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>3.698987336805942</v>
+        <v>3.698987336806027</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -35577,7 +35577,7 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675403</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>242.7146431439464</v>
+        <v>242.7146431439463</v>
       </c>
       <c r="K14" t="n">
-        <v>415.0173613234871</v>
+        <v>415.017361323487</v>
       </c>
       <c r="L14" t="n">
         <v>552.1402419944259</v>
       </c>
       <c r="M14" t="n">
-        <v>646.3517360055109</v>
+        <v>646.3517360055108</v>
       </c>
       <c r="N14" t="n">
-        <v>661.4707953378872</v>
+        <v>661.470795337887</v>
       </c>
       <c r="O14" t="n">
-        <v>611.1381540781327</v>
+        <v>611.1381540781326</v>
       </c>
       <c r="P14" t="n">
-        <v>486.742779507654</v>
+        <v>486.7427795076539</v>
       </c>
       <c r="Q14" t="n">
-        <v>316.8642165131795</v>
+        <v>316.8642165131794</v>
       </c>
       <c r="R14" t="n">
-        <v>98.04557313142385</v>
+        <v>98.04557313142379</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>125.5512524755841</v>
       </c>
       <c r="K15" t="n">
-        <v>293.5313553889596</v>
+        <v>293.5313553889595</v>
       </c>
       <c r="L15" t="n">
-        <v>441.4795769508776</v>
+        <v>441.4795769508775</v>
       </c>
       <c r="M15" t="n">
-        <v>534.7382351484903</v>
+        <v>6.829770194530389</v>
       </c>
       <c r="N15" t="n">
-        <v>537.234293684405</v>
+        <v>563.445351853175</v>
       </c>
       <c r="O15" t="n">
-        <v>492.9981813867462</v>
+        <v>492.9981813867461</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>376.1461543096061</v>
       </c>
       <c r="Q15" t="n">
-        <v>201.0203121010667</v>
+        <v>201.0203121010666</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>64.98149176064246</v>
+        <v>64.98149176064243</v>
       </c>
       <c r="K16" t="n">
         <v>237.9328724009511</v>
@@ -35811,16 +35811,16 @@
         <v>360.5594669321193</v>
       </c>
       <c r="M16" t="n">
-        <v>390.6534674441019</v>
+        <v>390.6534674441018</v>
       </c>
       <c r="N16" t="n">
         <v>386.8541126789391</v>
       </c>
       <c r="O16" t="n">
-        <v>341.1443109342915</v>
+        <v>341.1443109342914</v>
       </c>
       <c r="P16" t="n">
-        <v>268.1496276274756</v>
+        <v>268.1496276274755</v>
       </c>
       <c r="Q16" t="n">
         <v>101.3750441421529</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>242.7146431439464</v>
+        <v>242.7146431439463</v>
       </c>
       <c r="K17" t="n">
-        <v>415.0173613234871</v>
+        <v>415.017361323487</v>
       </c>
       <c r="L17" t="n">
         <v>552.1402419944259</v>
       </c>
       <c r="M17" t="n">
-        <v>646.3517360055109</v>
+        <v>646.3517360055108</v>
       </c>
       <c r="N17" t="n">
-        <v>661.4707953378872</v>
+        <v>661.470795337887</v>
       </c>
       <c r="O17" t="n">
-        <v>611.1381540781327</v>
+        <v>611.1381540781326</v>
       </c>
       <c r="P17" t="n">
-        <v>486.742779507654</v>
+        <v>486.7427795076539</v>
       </c>
       <c r="Q17" t="n">
-        <v>316.8642165131795</v>
+        <v>316.8642165131794</v>
       </c>
       <c r="R17" t="n">
-        <v>98.04557313142385</v>
+        <v>98.04557313142379</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>267.32029722019</v>
       </c>
       <c r="L18" t="n">
-        <v>441.4795769508776</v>
+        <v>441.4795769508775</v>
       </c>
       <c r="M18" t="n">
-        <v>534.7382351484903</v>
+        <v>534.73823514849</v>
       </c>
       <c r="N18" t="n">
-        <v>563.4453518531751</v>
+        <v>563.445351853175</v>
       </c>
       <c r="O18" t="n">
-        <v>492.9981813867462</v>
+        <v>492.9981813867461</v>
       </c>
       <c r="P18" t="n">
-        <v>376.1461543096062</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>92.19445501165029</v>
+        <v>201.0203121010666</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>96.59169411285643</v>
+        <v>96.59169411285637</v>
       </c>
       <c r="K19" t="n">
         <v>269.5430747531651</v>
@@ -36060,7 +36060,7 @@
         <v>299.7598299796895</v>
       </c>
       <c r="Q19" t="n">
-        <v>132.9852464943669</v>
+        <v>132.9852464943668</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>242.7146431439464</v>
+        <v>242.7146431439463</v>
       </c>
       <c r="K20" t="n">
-        <v>415.0173613234871</v>
+        <v>415.017361323487</v>
       </c>
       <c r="L20" t="n">
         <v>552.1402419944259</v>
       </c>
       <c r="M20" t="n">
-        <v>646.3517360055109</v>
+        <v>646.3517360055108</v>
       </c>
       <c r="N20" t="n">
-        <v>661.4707953378872</v>
+        <v>661.470795337887</v>
       </c>
       <c r="O20" t="n">
-        <v>611.1381540781327</v>
+        <v>611.1381540781326</v>
       </c>
       <c r="P20" t="n">
-        <v>486.742779507654</v>
+        <v>486.7427795076539</v>
       </c>
       <c r="Q20" t="n">
-        <v>316.8642165131795</v>
+        <v>316.8642165131794</v>
       </c>
       <c r="R20" t="n">
-        <v>98.04557313142385</v>
+        <v>98.04557313142379</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>92.19445501165026</v>
+        <v>125.5512524755841</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>293.5313553889595</v>
       </c>
       <c r="L21" t="n">
-        <v>441.4795769508776</v>
+        <v>441.4795769508775</v>
       </c>
       <c r="M21" t="n">
-        <v>534.7382351484903</v>
+        <v>534.73823514849</v>
       </c>
       <c r="N21" t="n">
-        <v>563.4453518531751</v>
+        <v>563.445351853175</v>
       </c>
       <c r="O21" t="n">
-        <v>492.9981813867462</v>
+        <v>492.9981813867461</v>
       </c>
       <c r="P21" t="n">
-        <v>376.1461543096062</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>49.25800145671304</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>96.59169411285642</v>
+        <v>96.59169411285637</v>
       </c>
       <c r="K22" t="n">
         <v>269.5430747531651</v>
@@ -36297,7 +36297,7 @@
         <v>299.7598299796895</v>
       </c>
       <c r="Q22" t="n">
-        <v>132.9852464943669</v>
+        <v>132.9852464943668</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>132.9061636449188</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>306.102070050368</v>
@@ -36449,10 +36449,10 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O24" t="n">
-        <v>460.0739271306256</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>81.45993426216013</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K25" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L25" t="n">
         <v>401.8727935817349</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L27" t="n">
         <v>458.3824541356842</v>
@@ -36683,13 +36683,13 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N27" t="n">
-        <v>583.6922706327296</v>
+        <v>141.2343689750664</v>
       </c>
       <c r="O27" t="n">
         <v>511.5201565133839</v>
       </c>
       <c r="P27" t="n">
-        <v>387.5620043125282</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>101.205929019356</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414979</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L28" t="n">
-        <v>401.872793581735</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M28" t="n">
-        <v>432.49425388951</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N28" t="n">
-        <v>428.4516387010909</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O28" t="n">
-        <v>381.9794231908714</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P28" t="n">
-        <v>307.6533340553061</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q28" t="n">
-        <v>138.4502995641583</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L30" t="n">
         <v>458.3824541356842</v>
@@ -36920,16 +36920,16 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N30" t="n">
-        <v>369.285085487242</v>
+        <v>532.2460412499712</v>
       </c>
       <c r="O30" t="n">
         <v>511.5201565133839</v>
       </c>
       <c r="P30" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>81.45993426216029</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L33" t="n">
         <v>458.3824541356842</v>
@@ -37157,16 +37157,16 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N33" t="n">
-        <v>369.285085487242</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O33" t="n">
         <v>511.5201565133839</v>
       </c>
       <c r="P33" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>101.2059290193558</v>
+        <v>101.205929019356</v>
       </c>
       <c r="K34" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414979</v>
       </c>
       <c r="L34" t="n">
-        <v>401.8727935817349</v>
+        <v>401.872793581735</v>
       </c>
       <c r="M34" t="n">
-        <v>432.4942538895098</v>
+        <v>432.49425388951</v>
       </c>
       <c r="N34" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010909</v>
       </c>
       <c r="O34" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908714</v>
       </c>
       <c r="P34" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553061</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641583</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L36" t="n">
         <v>458.3824541356842</v>
@@ -37394,19 +37394,19 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N36" t="n">
-        <v>344.2699561634848</v>
+        <v>532.2460412499712</v>
       </c>
       <c r="O36" t="n">
         <v>511.5201565133839</v>
       </c>
       <c r="P36" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K37" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414979</v>
       </c>
       <c r="L37" t="n">
-        <v>401.8727935817349</v>
+        <v>401.872793581735</v>
       </c>
       <c r="M37" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N37" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O37" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P37" t="n">
-        <v>307.6533340553059</v>
+        <v>307.653334055306</v>
       </c>
       <c r="Q37" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L39" t="n">
         <v>458.3824541356842</v>
@@ -37631,19 +37631,19 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N39" t="n">
-        <v>344.2699561634848</v>
+        <v>532.2460412499712</v>
       </c>
       <c r="O39" t="n">
         <v>511.5201565133839</v>
       </c>
       <c r="P39" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L40" t="n">
         <v>401.8727935817349</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L42" t="n">
-        <v>218.9601396664396</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M42" t="n">
         <v>554.4630955659486</v>
@@ -37871,16 +37871,16 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O42" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P42" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N45" t="n">
-        <v>459.7248180341467</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O45" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P45" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>101.205929019351</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K46" t="n">
-        <v>277.1256801414979</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L46" t="n">
-        <v>401.872793581735</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M46" t="n">
-        <v>432.49425388951</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N46" t="n">
-        <v>428.4516387010909</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O46" t="n">
-        <v>381.9794231908714</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P46" t="n">
-        <v>307.6533340553061</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q46" t="n">
-        <v>138.4502995641583</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
